--- a/03データベース設計書/03_データベース設計書(やまったー)完成版.xlsx
+++ b/03データベース設計書/03_データベース設計書(やまったー)完成版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\システム開発\GitHub\03データベース設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43412DD9-DAE6-4FDF-836F-27E703FD45C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C024BE-D497-4C02-BA48-5DE6EA19F639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,11 +23,11 @@
     <sheet name="CRUD図 " sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'CRUD図 '!$A$1:$K$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'CRUD図 '!$A$1:$K$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ジャンル!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">ユーザー!$A$1:$H$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">好きなジャンル!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">好きなジャンル!$A$1:$H$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">投稿!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">返信!$A$1:$H$54</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="189">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -547,9 +547,6 @@
     <t>email address</t>
   </si>
   <si>
-    <t>VARCHAR(30)</t>
-  </si>
-  <si>
     <t>パスワード</t>
   </si>
   <si>
@@ -770,33 +767,10 @@
     <t>C</t>
   </si>
   <si>
-    <t>投稿返信機能</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>投稿返信削除機能</t>
-  </si>
-  <si>
     <t>R,D</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>いいね機能</t>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
-    <t>リプライ機能</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -844,7 +818,115 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>R,U,D</t>
+    <t>RU</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R,U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンルID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>genre_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>genre_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FK1  PK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FK2  PK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿機能</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返信機能</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシンキノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返信削除機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿削除機能</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿いいね機能</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返信いいね機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R,D</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1083,7 +1165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1875,6 +1957,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1940,7 +2033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2403,6 +2496,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2791,25 +2896,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>196646</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>49162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1847850</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1422401</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>70428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D3238C-0E81-5A8A-D45E-41BF08593AB6}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E19FC6AA-DBDE-0317-4215-D6463B626843}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088F3A5E-A1D4-1E53-E01E-7A41C25544CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,8 +2927,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="200025" y="6210300"/>
-          <a:ext cx="8924925" cy="4381500"/>
+          <a:off x="196646" y="6227097"/>
+          <a:ext cx="7772400" cy="3782105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3598,21 +3700,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="163" t="s">
+      <c r="U3" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="165"/>
-      <c r="W3" s="190">
+      <c r="V3" s="169"/>
+      <c r="W3" s="194">
         <v>45054</v>
       </c>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="165"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="169"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3724,20 +3826,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="176"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="176"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="177"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="181"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -3755,86 +3857,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="184" t="s">
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="186"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="190"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="174" t="s">
+      <c r="W8" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="174"/>
-      <c r="Y8" s="174"/>
-      <c r="Z8" s="174" t="s">
+      <c r="X8" s="178"/>
+      <c r="Y8" s="178"/>
+      <c r="Z8" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="174"/>
-      <c r="AB8" s="174"/>
-      <c r="AC8" s="174" t="s">
+      <c r="AA8" s="178"/>
+      <c r="AB8" s="178"/>
+      <c r="AC8" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="174"/>
-      <c r="AE8" s="174"/>
+      <c r="AD8" s="178"/>
+      <c r="AE8" s="178"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="30" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="188"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="189"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="192"/>
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="193"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="200" t="s">
+      <c r="W9" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="200" t="s">
+      <c r="X9" s="196"/>
+      <c r="Y9" s="197"/>
+      <c r="Z9" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="AA9" s="192"/>
-      <c r="AB9" s="193"/>
-      <c r="AC9" s="191" t="s">
+      <c r="AA9" s="196"/>
+      <c r="AB9" s="197"/>
+      <c r="AC9" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="AD9" s="192"/>
-      <c r="AE9" s="193"/>
+      <c r="AD9" s="196"/>
+      <c r="AE9" s="197"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3860,15 +3962,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="194"/>
-      <c r="X10" s="195"/>
-      <c r="Y10" s="196"/>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="195"/>
-      <c r="AB10" s="196"/>
-      <c r="AC10" s="194"/>
-      <c r="AD10" s="195"/>
-      <c r="AE10" s="196"/>
+      <c r="W10" s="198"/>
+      <c r="X10" s="199"/>
+      <c r="Y10" s="200"/>
+      <c r="Z10" s="198"/>
+      <c r="AA10" s="199"/>
+      <c r="AB10" s="200"/>
+      <c r="AC10" s="198"/>
+      <c r="AD10" s="199"/>
+      <c r="AE10" s="200"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3894,15 +3996,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="194"/>
-      <c r="X11" s="195"/>
-      <c r="Y11" s="196"/>
-      <c r="Z11" s="194"/>
-      <c r="AA11" s="195"/>
-      <c r="AB11" s="196"/>
-      <c r="AC11" s="194"/>
-      <c r="AD11" s="195"/>
-      <c r="AE11" s="196"/>
+      <c r="W11" s="198"/>
+      <c r="X11" s="199"/>
+      <c r="Y11" s="200"/>
+      <c r="Z11" s="198"/>
+      <c r="AA11" s="199"/>
+      <c r="AB11" s="200"/>
+      <c r="AC11" s="198"/>
+      <c r="AD11" s="199"/>
+      <c r="AE11" s="200"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3928,15 +4030,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="201"/>
-      <c r="X12" s="202"/>
-      <c r="Y12" s="203"/>
-      <c r="Z12" s="201"/>
-      <c r="AA12" s="202"/>
-      <c r="AB12" s="203"/>
-      <c r="AC12" s="197"/>
-      <c r="AD12" s="198"/>
-      <c r="AE12" s="199"/>
+      <c r="W12" s="205"/>
+      <c r="X12" s="206"/>
+      <c r="Y12" s="207"/>
+      <c r="Z12" s="205"/>
+      <c r="AA12" s="206"/>
+      <c r="AB12" s="207"/>
+      <c r="AC12" s="201"/>
+      <c r="AD12" s="202"/>
+      <c r="AE12" s="203"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4031,106 +4133,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="173"/>
-      <c r="V16" s="173"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="173"/>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="173"/>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="177"/>
+      <c r="Z16" s="177"/>
+      <c r="AA16" s="177"/>
+      <c r="AB16" s="177"/>
+      <c r="AC16" s="177"/>
+      <c r="AD16" s="177"/>
+      <c r="AE16" s="177"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="173"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="173"/>
-      <c r="U17" s="173"/>
-      <c r="V17" s="173"/>
-      <c r="W17" s="173"/>
-      <c r="X17" s="173"/>
-      <c r="Y17" s="173"/>
-      <c r="Z17" s="173"/>
-      <c r="AA17" s="173"/>
-      <c r="AB17" s="173"/>
-      <c r="AC17" s="173"/>
-      <c r="AD17" s="173"/>
-      <c r="AE17" s="173"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="177"/>
+      <c r="V17" s="177"/>
+      <c r="W17" s="177"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="177"/>
+      <c r="Z17" s="177"/>
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="177"/>
+      <c r="AD17" s="177"/>
+      <c r="AE17" s="177"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="173"/>
-      <c r="S18" s="173"/>
-      <c r="T18" s="173"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="173"/>
-      <c r="W18" s="173"/>
-      <c r="X18" s="173"/>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="173"/>
-      <c r="AA18" s="173"/>
-      <c r="AB18" s="173"/>
-      <c r="AC18" s="173"/>
-      <c r="AD18" s="173"/>
-      <c r="AE18" s="173"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="177"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="177"/>
+      <c r="AE18" s="177"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4269,392 +4371,392 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="163" t="s">
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="163" t="s">
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="164"/>
-      <c r="L23" s="164"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="164"/>
-      <c r="O23" s="164"/>
-      <c r="P23" s="164"/>
-      <c r="Q23" s="164"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="164"/>
-      <c r="U23" s="164"/>
-      <c r="V23" s="164"/>
-      <c r="W23" s="164"/>
-      <c r="X23" s="164"/>
-      <c r="Y23" s="164"/>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="164"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="163" t="s">
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168"/>
+      <c r="O23" s="168"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="168"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="168"/>
+      <c r="T23" s="168"/>
+      <c r="U23" s="168"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="168"/>
+      <c r="Y23" s="168"/>
+      <c r="Z23" s="168"/>
+      <c r="AA23" s="168"/>
+      <c r="AB23" s="169"/>
+      <c r="AC23" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="164"/>
-      <c r="AE23" s="165"/>
+      <c r="AD23" s="168"/>
+      <c r="AE23" s="169"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="166">
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170">
         <v>45054</v>
       </c>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="169" t="s">
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="170"/>
-      <c r="Q24" s="170"/>
-      <c r="R24" s="170"/>
-      <c r="S24" s="170"/>
-      <c r="T24" s="170"/>
-      <c r="U24" s="170"/>
-      <c r="V24" s="170"/>
-      <c r="W24" s="170"/>
-      <c r="X24" s="170"/>
-      <c r="Y24" s="170"/>
-      <c r="Z24" s="170"/>
-      <c r="AA24" s="170"/>
-      <c r="AB24" s="171"/>
-      <c r="AC24" s="172" t="s">
+      <c r="K24" s="174"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="174"/>
+      <c r="N24" s="174"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="174"/>
+      <c r="Q24" s="174"/>
+      <c r="R24" s="174"/>
+      <c r="S24" s="174"/>
+      <c r="T24" s="174"/>
+      <c r="U24" s="174"/>
+      <c r="V24" s="174"/>
+      <c r="W24" s="174"/>
+      <c r="X24" s="174"/>
+      <c r="Y24" s="174"/>
+      <c r="Z24" s="174"/>
+      <c r="AA24" s="174"/>
+      <c r="AB24" s="175"/>
+      <c r="AC24" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="AD24" s="164"/>
-      <c r="AE24" s="165"/>
+      <c r="AD24" s="168"/>
+      <c r="AE24" s="169"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="170"/>
-      <c r="T25" s="170"/>
-      <c r="U25" s="170"/>
-      <c r="V25" s="170"/>
-      <c r="W25" s="170"/>
-      <c r="X25" s="170"/>
-      <c r="Y25" s="170"/>
-      <c r="Z25" s="170"/>
-      <c r="AA25" s="170"/>
-      <c r="AB25" s="171"/>
-      <c r="AC25" s="163"/>
-      <c r="AD25" s="164"/>
-      <c r="AE25" s="165"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="174"/>
+      <c r="L25" s="174"/>
+      <c r="M25" s="174"/>
+      <c r="N25" s="174"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="174"/>
+      <c r="Q25" s="174"/>
+      <c r="R25" s="174"/>
+      <c r="S25" s="174"/>
+      <c r="T25" s="174"/>
+      <c r="U25" s="174"/>
+      <c r="V25" s="174"/>
+      <c r="W25" s="174"/>
+      <c r="X25" s="174"/>
+      <c r="Y25" s="174"/>
+      <c r="Z25" s="174"/>
+      <c r="AA25" s="174"/>
+      <c r="AB25" s="175"/>
+      <c r="AC25" s="167"/>
+      <c r="AD25" s="168"/>
+      <c r="AE25" s="169"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170"/>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="170"/>
-      <c r="X26" s="170"/>
-      <c r="Y26" s="170"/>
-      <c r="Z26" s="170"/>
-      <c r="AA26" s="170"/>
-      <c r="AB26" s="171"/>
-      <c r="AC26" s="163"/>
-      <c r="AD26" s="164"/>
-      <c r="AE26" s="165"/>
+      <c r="B26" s="167"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="174"/>
+      <c r="O26" s="174"/>
+      <c r="P26" s="174"/>
+      <c r="Q26" s="174"/>
+      <c r="R26" s="174"/>
+      <c r="S26" s="174"/>
+      <c r="T26" s="174"/>
+      <c r="U26" s="174"/>
+      <c r="V26" s="174"/>
+      <c r="W26" s="174"/>
+      <c r="X26" s="174"/>
+      <c r="Y26" s="174"/>
+      <c r="Z26" s="174"/>
+      <c r="AA26" s="174"/>
+      <c r="AB26" s="175"/>
+      <c r="AC26" s="167"/>
+      <c r="AD26" s="168"/>
+      <c r="AE26" s="169"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="164"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="170"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="170"/>
-      <c r="U27" s="170"/>
-      <c r="V27" s="170"/>
-      <c r="W27" s="170"/>
-      <c r="X27" s="170"/>
-      <c r="Y27" s="170"/>
-      <c r="Z27" s="170"/>
-      <c r="AA27" s="170"/>
-      <c r="AB27" s="171"/>
-      <c r="AC27" s="163"/>
-      <c r="AD27" s="164"/>
-      <c r="AE27" s="165"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="174"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="174"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="174"/>
+      <c r="Q27" s="174"/>
+      <c r="R27" s="174"/>
+      <c r="S27" s="174"/>
+      <c r="T27" s="174"/>
+      <c r="U27" s="174"/>
+      <c r="V27" s="174"/>
+      <c r="W27" s="174"/>
+      <c r="X27" s="174"/>
+      <c r="Y27" s="174"/>
+      <c r="Z27" s="174"/>
+      <c r="AA27" s="174"/>
+      <c r="AB27" s="175"/>
+      <c r="AC27" s="167"/>
+      <c r="AD27" s="168"/>
+      <c r="AE27" s="169"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="170"/>
-      <c r="S28" s="170"/>
-      <c r="T28" s="170"/>
-      <c r="U28" s="170"/>
-      <c r="V28" s="170"/>
-      <c r="W28" s="170"/>
-      <c r="X28" s="170"/>
-      <c r="Y28" s="170"/>
-      <c r="Z28" s="170"/>
-      <c r="AA28" s="170"/>
-      <c r="AB28" s="171"/>
-      <c r="AC28" s="163"/>
-      <c r="AD28" s="164"/>
-      <c r="AE28" s="165"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="174"/>
+      <c r="Q28" s="174"/>
+      <c r="R28" s="174"/>
+      <c r="S28" s="174"/>
+      <c r="T28" s="174"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="174"/>
+      <c r="W28" s="174"/>
+      <c r="X28" s="174"/>
+      <c r="Y28" s="174"/>
+      <c r="Z28" s="174"/>
+      <c r="AA28" s="174"/>
+      <c r="AB28" s="175"/>
+      <c r="AC28" s="167"/>
+      <c r="AD28" s="168"/>
+      <c r="AE28" s="169"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="170"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="170"/>
-      <c r="R29" s="170"/>
-      <c r="S29" s="170"/>
-      <c r="T29" s="170"/>
-      <c r="U29" s="170"/>
-      <c r="V29" s="170"/>
-      <c r="W29" s="170"/>
-      <c r="X29" s="170"/>
-      <c r="Y29" s="170"/>
-      <c r="Z29" s="170"/>
-      <c r="AA29" s="170"/>
-      <c r="AB29" s="171"/>
-      <c r="AC29" s="163"/>
-      <c r="AD29" s="164"/>
-      <c r="AE29" s="165"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="174"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="174"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="174"/>
+      <c r="S29" s="174"/>
+      <c r="T29" s="174"/>
+      <c r="U29" s="174"/>
+      <c r="V29" s="174"/>
+      <c r="W29" s="174"/>
+      <c r="X29" s="174"/>
+      <c r="Y29" s="174"/>
+      <c r="Z29" s="174"/>
+      <c r="AA29" s="174"/>
+      <c r="AB29" s="175"/>
+      <c r="AC29" s="167"/>
+      <c r="AD29" s="168"/>
+      <c r="AE29" s="169"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="170"/>
-      <c r="O30" s="170"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="170"/>
-      <c r="R30" s="170"/>
-      <c r="S30" s="170"/>
-      <c r="T30" s="170"/>
-      <c r="U30" s="170"/>
-      <c r="V30" s="170"/>
-      <c r="W30" s="170"/>
-      <c r="X30" s="170"/>
-      <c r="Y30" s="170"/>
-      <c r="Z30" s="170"/>
-      <c r="AA30" s="170"/>
-      <c r="AB30" s="171"/>
-      <c r="AC30" s="163"/>
-      <c r="AD30" s="164"/>
-      <c r="AE30" s="165"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="174"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="174"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="174"/>
+      <c r="Q30" s="174"/>
+      <c r="R30" s="174"/>
+      <c r="S30" s="174"/>
+      <c r="T30" s="174"/>
+      <c r="U30" s="174"/>
+      <c r="V30" s="174"/>
+      <c r="W30" s="174"/>
+      <c r="X30" s="174"/>
+      <c r="Y30" s="174"/>
+      <c r="Z30" s="174"/>
+      <c r="AA30" s="174"/>
+      <c r="AB30" s="175"/>
+      <c r="AC30" s="167"/>
+      <c r="AD30" s="168"/>
+      <c r="AE30" s="169"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="170"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="170"/>
-      <c r="T31" s="170"/>
-      <c r="U31" s="170"/>
-      <c r="V31" s="170"/>
-      <c r="W31" s="170"/>
-      <c r="X31" s="170"/>
-      <c r="Y31" s="170"/>
-      <c r="Z31" s="170"/>
-      <c r="AA31" s="170"/>
-      <c r="AB31" s="171"/>
-      <c r="AC31" s="163"/>
-      <c r="AD31" s="164"/>
-      <c r="AE31" s="165"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="173"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="174"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="174"/>
+      <c r="S31" s="174"/>
+      <c r="T31" s="174"/>
+      <c r="U31" s="174"/>
+      <c r="V31" s="174"/>
+      <c r="W31" s="174"/>
+      <c r="X31" s="174"/>
+      <c r="Y31" s="174"/>
+      <c r="Z31" s="174"/>
+      <c r="AA31" s="174"/>
+      <c r="AB31" s="175"/>
+      <c r="AC31" s="167"/>
+      <c r="AD31" s="168"/>
+      <c r="AE31" s="169"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="170"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="170"/>
-      <c r="R32" s="170"/>
-      <c r="S32" s="170"/>
-      <c r="T32" s="170"/>
-      <c r="U32" s="170"/>
-      <c r="V32" s="170"/>
-      <c r="W32" s="170"/>
-      <c r="X32" s="170"/>
-      <c r="Y32" s="170"/>
-      <c r="Z32" s="170"/>
-      <c r="AA32" s="170"/>
-      <c r="AB32" s="171"/>
-      <c r="AC32" s="163"/>
-      <c r="AD32" s="164"/>
-      <c r="AE32" s="165"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="174"/>
+      <c r="M32" s="174"/>
+      <c r="N32" s="174"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="174"/>
+      <c r="Q32" s="174"/>
+      <c r="R32" s="174"/>
+      <c r="S32" s="174"/>
+      <c r="T32" s="174"/>
+      <c r="U32" s="174"/>
+      <c r="V32" s="174"/>
+      <c r="W32" s="174"/>
+      <c r="X32" s="174"/>
+      <c r="Y32" s="174"/>
+      <c r="Z32" s="174"/>
+      <c r="AA32" s="174"/>
+      <c r="AB32" s="175"/>
+      <c r="AC32" s="167"/>
+      <c r="AD32" s="168"/>
+      <c r="AE32" s="169"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="164"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="170"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="170"/>
-      <c r="R33" s="170"/>
-      <c r="S33" s="170"/>
-      <c r="T33" s="170"/>
-      <c r="U33" s="170"/>
-      <c r="V33" s="170"/>
-      <c r="W33" s="170"/>
-      <c r="X33" s="170"/>
-      <c r="Y33" s="170"/>
-      <c r="Z33" s="170"/>
-      <c r="AA33" s="170"/>
-      <c r="AB33" s="171"/>
-      <c r="AC33" s="163"/>
-      <c r="AD33" s="164"/>
-      <c r="AE33" s="165"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="174"/>
+      <c r="L33" s="174"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="174"/>
+      <c r="O33" s="174"/>
+      <c r="P33" s="174"/>
+      <c r="Q33" s="174"/>
+      <c r="R33" s="174"/>
+      <c r="S33" s="174"/>
+      <c r="T33" s="174"/>
+      <c r="U33" s="174"/>
+      <c r="V33" s="174"/>
+      <c r="W33" s="174"/>
+      <c r="X33" s="174"/>
+      <c r="Y33" s="174"/>
+      <c r="Z33" s="174"/>
+      <c r="AA33" s="174"/>
+      <c r="AB33" s="175"/>
+      <c r="AC33" s="167"/>
+      <c r="AD33" s="168"/>
+      <c r="AE33" s="169"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4771,8 +4873,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -4797,10 +4899,10 @@
       <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="215"/>
+      <c r="B2" s="219"/>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
@@ -4813,10 +4915,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="218" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="215"/>
+      <c r="B3" s="219"/>
       <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
@@ -4829,10 +4931,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="215"/>
+      <c r="B4" s="219"/>
       <c r="C4" s="30" t="s">
         <v>29</v>
       </c>
@@ -4845,10 +4947,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="215"/>
+      <c r="B5" s="219"/>
       <c r="C5" s="30" t="s">
         <v>32</v>
       </c>
@@ -4859,10 +4961,10 @@
       <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="215"/>
+      <c r="B6" s="219"/>
       <c r="C6" s="30" t="s">
         <v>35</v>
       </c>
@@ -4903,10 +5005,10 @@
       <c r="D9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="208" t="s">
+      <c r="E9" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="209"/>
+      <c r="F9" s="213"/>
     </row>
     <row r="10" spans="1:8" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -4921,10 +5023,10 @@
       <c r="D10" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="210" t="s">
+      <c r="E10" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="211"/>
+      <c r="F10" s="215"/>
       <c r="G10" s="159"/>
       <c r="H10" s="159"/>
     </row>
@@ -4941,10 +5043,10 @@
       <c r="D11" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="212" t="s">
+      <c r="E11" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="213"/>
+      <c r="F11" s="217"/>
     </row>
     <row r="12" spans="1:8" ht="33.75" customHeight="1">
       <c r="A12" s="59">
@@ -4959,10 +5061,10 @@
       <c r="D12" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="204" t="s">
+      <c r="E12" s="208" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="205"/>
+      <c r="F12" s="209"/>
     </row>
     <row r="13" spans="1:8" ht="33.75" customHeight="1">
       <c r="A13" s="59">
@@ -4977,10 +5079,10 @@
       <c r="D13" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="204" t="s">
+      <c r="E13" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="205"/>
+      <c r="F13" s="209"/>
     </row>
     <row r="14" spans="1:8" ht="33.75" customHeight="1">
       <c r="A14" s="59">
@@ -4995,33 +5097,33 @@
       <c r="D14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="204" t="s">
+      <c r="E14" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="205"/>
+      <c r="F14" s="209"/>
     </row>
     <row r="15" spans="1:8" ht="33.75" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="207"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="211"/>
     </row>
     <row r="16" spans="1:8" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="211"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="207"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="211"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -5297,8 +5399,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50:G50"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -5396,42 +5498,42 @@
         <v>63</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -5452,10 +5554,10 @@
       <c r="B10" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="221" t="s">
+      <c r="C10" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="222"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="48" t="s">
         <v>71</v>
       </c>
@@ -5474,14 +5576,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="223" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="224"/>
+        <v>170</v>
+      </c>
+      <c r="C11" s="227" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="228"/>
       <c r="E11" s="63" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="F11" s="63" t="s">
         <v>76</v>
@@ -5492,20 +5594,30 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="A12" s="66">
+        <v>2</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="220" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="221"/>
+      <c r="E12" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>176</v>
+      </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="66"/>
       <c r="B13" s="67"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="217"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="221"/>
       <c r="E13" s="68"/>
       <c r="F13" s="68"/>
       <c r="G13" s="69"/>
@@ -5514,8 +5626,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="217"/>
+      <c r="C14" s="220"/>
+      <c r="D14" s="221"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -5524,8 +5636,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="217"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="221"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -5534,8 +5646,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="217"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="221"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -5544,8 +5656,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="217"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="221"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -5554,8 +5666,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="217"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="221"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5564,8 +5676,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="217"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="221"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5574,8 +5686,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="217"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="221"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5584,8 +5696,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="221"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5594,8 +5706,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="217"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="221"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5604,8 +5716,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="221"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5614,8 +5726,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="217"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="221"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5624,8 +5736,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="217"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="221"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5634,8 +5746,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="221"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5644,8 +5756,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="217"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="221"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5654,8 +5766,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="221"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5664,8 +5776,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="221"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5674,8 +5786,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="231"/>
+      <c r="C30" s="234"/>
+      <c r="D30" s="235"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5707,10 +5819,10 @@
       <c r="A33" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="232" t="s">
+      <c r="B33" s="236" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="233"/>
+      <c r="C33" s="237"/>
       <c r="D33" s="54" t="s">
         <v>80</v>
       </c>
@@ -5725,51 +5837,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="234"/>
-      <c r="C34" s="235"/>
-      <c r="D34" s="236"/>
-      <c r="E34" s="237"/>
-      <c r="F34" s="238"/>
+      <c r="B34" s="238"/>
+      <c r="C34" s="239"/>
+      <c r="D34" s="240"/>
+      <c r="E34" s="241"/>
+      <c r="F34" s="242"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="225"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="227"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="229"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="233"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="225"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="227"/>
-      <c r="E36" s="228"/>
-      <c r="F36" s="229"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="231"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="233"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="225"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="227"/>
-      <c r="E37" s="228"/>
-      <c r="F37" s="229"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="231"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="233"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="239"/>
-      <c r="C38" s="240"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="241"/>
-      <c r="F38" s="231"/>
+      <c r="B38" s="243"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="234"/>
+      <c r="E38" s="245"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -5802,15 +5914,15 @@
       <c r="B41" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="232" t="s">
+      <c r="C41" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="242"/>
-      <c r="E41" s="233"/>
-      <c r="F41" s="232" t="s">
+      <c r="D41" s="246"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="236" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="243"/>
+      <c r="G41" s="247"/>
       <c r="H41" s="58" t="s">
         <v>85</v>
       </c>
@@ -5822,15 +5934,15 @@
       <c r="B42" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="244" t="s">
+      <c r="C42" s="248" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="245"/>
-      <c r="E42" s="246"/>
-      <c r="F42" s="244" t="s">
+      <c r="D42" s="249"/>
+      <c r="E42" s="250"/>
+      <c r="F42" s="248" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="246"/>
+      <c r="G42" s="250"/>
       <c r="H42" s="96" t="s">
         <v>64</v>
       </c>
@@ -5838,41 +5950,41 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="227"/>
-      <c r="D43" s="228"/>
-      <c r="E43" s="229"/>
-      <c r="F43" s="227"/>
-      <c r="G43" s="229"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="233"/>
+      <c r="F43" s="231"/>
+      <c r="G43" s="233"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="227"/>
-      <c r="D44" s="228"/>
-      <c r="E44" s="229"/>
-      <c r="F44" s="227"/>
-      <c r="G44" s="229"/>
+      <c r="C44" s="231"/>
+      <c r="D44" s="232"/>
+      <c r="E44" s="233"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="233"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="228"/>
-      <c r="E45" s="229"/>
-      <c r="F45" s="227"/>
-      <c r="G45" s="229"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="233"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="230"/>
-      <c r="D46" s="241"/>
-      <c r="E46" s="231"/>
-      <c r="F46" s="247"/>
-      <c r="G46" s="248"/>
+      <c r="C46" s="234"/>
+      <c r="D46" s="245"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="251"/>
+      <c r="G46" s="252"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5904,15 +6016,15 @@
       <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="232" t="s">
+      <c r="C49" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="242"/>
-      <c r="E49" s="233"/>
-      <c r="F49" s="221" t="s">
+      <c r="D49" s="246"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="249"/>
+      <c r="G49" s="253"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -5924,15 +6036,15 @@
       <c r="B50" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="244" t="s">
+      <c r="C50" s="248" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="245"/>
-      <c r="E50" s="246"/>
-      <c r="F50" s="244" t="s">
+      <c r="D50" s="249"/>
+      <c r="E50" s="250"/>
+      <c r="F50" s="248" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="246"/>
+      <c r="G50" s="250"/>
       <c r="H50" s="96" t="s">
         <v>64</v>
       </c>
@@ -5940,41 +6052,41 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="227"/>
-      <c r="D51" s="228"/>
-      <c r="E51" s="229"/>
-      <c r="F51" s="227"/>
-      <c r="G51" s="229"/>
+      <c r="C51" s="231"/>
+      <c r="D51" s="232"/>
+      <c r="E51" s="233"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="233"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="228"/>
-      <c r="E52" s="229"/>
-      <c r="F52" s="227"/>
-      <c r="G52" s="229"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="232"/>
+      <c r="E52" s="233"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="233"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="227"/>
-      <c r="D53" s="228"/>
-      <c r="E53" s="229"/>
-      <c r="F53" s="227"/>
-      <c r="G53" s="229"/>
+      <c r="C53" s="231"/>
+      <c r="D53" s="232"/>
+      <c r="E53" s="233"/>
+      <c r="F53" s="231"/>
+      <c r="G53" s="233"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="230"/>
-      <c r="D54" s="241"/>
-      <c r="E54" s="231"/>
-      <c r="F54" s="247"/>
-      <c r="G54" s="248"/>
+      <c r="C54" s="234"/>
+      <c r="D54" s="245"/>
+      <c r="E54" s="235"/>
+      <c r="F54" s="251"/>
+      <c r="G54" s="252"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -6050,10 +6162,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -6153,42 +6265,42 @@
         <v>63</v>
       </c>
       <c r="B6" s="139"/>
-      <c r="C6" s="250" t="s">
+      <c r="C6" s="254" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="252"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="255"/>
+      <c r="G6" s="255"/>
+      <c r="H6" s="256"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="134" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="139"/>
-      <c r="C7" s="250" t="s">
+      <c r="C7" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="252"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="255"/>
+      <c r="F7" s="255"/>
+      <c r="G7" s="255"/>
+      <c r="H7" s="256"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="134" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="139"/>
-      <c r="C8" s="250" t="s">
+      <c r="C8" s="254" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="251"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="252"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="255"/>
+      <c r="F8" s="255"/>
+      <c r="G8" s="255"/>
+      <c r="H8" s="256"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="140" t="s">
@@ -6209,10 +6321,10 @@
       <c r="B10" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="253" t="s">
+      <c r="C10" s="257" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="254"/>
+      <c r="D10" s="258"/>
       <c r="E10" s="142" t="s">
         <v>71</v>
       </c>
@@ -6233,10 +6345,10 @@
       <c r="B11" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="223" t="s">
+      <c r="C11" s="227" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="224"/>
+      <c r="D11" s="228"/>
       <c r="E11" s="63" t="s">
         <v>94</v>
       </c>
@@ -6245,56 +6357,66 @@
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="144" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="66">
+      <c r="A12" s="61">
         <v>2</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="216" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="217"/>
-      <c r="E12" s="68" t="s">
+      <c r="B12" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="165" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="166"/>
+      <c r="E12" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="66">
+        <v>3</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="220" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="221"/>
+      <c r="E13" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
       <c r="G13" s="68"/>
-      <c r="H13" s="145"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="146"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="220"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="145"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="217"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="221"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="73"/>
@@ -6303,8 +6425,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="216"/>
-      <c r="D16" s="217"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="221"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="73"/>
@@ -6313,8 +6435,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="217"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="221"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="73"/>
@@ -6323,8 +6445,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="217"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="221"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="73"/>
@@ -6333,8 +6455,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="217"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="221"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="73"/>
@@ -6343,8 +6465,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="217"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="221"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="73"/>
@@ -6353,8 +6475,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="221"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="73"/>
@@ -6363,8 +6485,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="217"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="221"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="73"/>
@@ -6373,8 +6495,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="221"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="73"/>
@@ -6383,8 +6505,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="217"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="221"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="73"/>
@@ -6393,8 +6515,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="217"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="221"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="73"/>
@@ -6403,8 +6525,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="221"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="73"/>
@@ -6413,8 +6535,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="217"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="221"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="73"/>
@@ -6423,8 +6545,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="221"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="73"/>
@@ -6433,364 +6555,373 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="221"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="73"/>
       <c r="H29" s="146"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="231"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="147"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="220"/>
+      <c r="D30" s="221"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="146"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="234"/>
+      <c r="D31" s="235"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="147"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A32" s="140" t="s">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="140"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A33" s="149" t="s">
+      <c r="B33" s="140"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="255" t="s">
+      <c r="B34" s="259" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="256"/>
-      <c r="D33" s="150" t="s">
+      <c r="C34" s="260"/>
+      <c r="D34" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="152"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="153" t="s">
+      <c r="E34" s="152"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="154" t="s">
+      <c r="H34" s="154" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="234"/>
-      <c r="C34" s="235"/>
-      <c r="D34" s="236"/>
-      <c r="E34" s="237"/>
-      <c r="F34" s="238"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="144"/>
-    </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="225"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="227"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="229"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="145"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="238"/>
+      <c r="C35" s="239"/>
+      <c r="D35" s="240"/>
+      <c r="E35" s="241"/>
+      <c r="F35" s="242"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="144"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="225"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="227"/>
-      <c r="E36" s="228"/>
-      <c r="F36" s="229"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="231"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="233"/>
       <c r="G36" s="68"/>
       <c r="H36" s="145"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="225"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="227"/>
-      <c r="E37" s="228"/>
-      <c r="F37" s="229"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="231"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="233"/>
       <c r="G37" s="68"/>
       <c r="H37" s="145"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A38" s="76"/>
-      <c r="B38" s="239"/>
-      <c r="C38" s="240"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="241"/>
-      <c r="F38" s="231"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="147"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="229"/>
+      <c r="C38" s="230"/>
+      <c r="D38" s="231"/>
+      <c r="E38" s="232"/>
+      <c r="F38" s="233"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="145"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="243"/>
+      <c r="C39" s="244"/>
+      <c r="D39" s="234"/>
+      <c r="E39" s="245"/>
+      <c r="F39" s="235"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="147"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A41" s="149" t="s">
+      <c r="B41" s="140"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="153" t="s">
+      <c r="B42" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="255" t="s">
+      <c r="C42" s="259" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="257"/>
-      <c r="E41" s="256"/>
-      <c r="F41" s="255" t="s">
+      <c r="D42" s="261"/>
+      <c r="E42" s="260"/>
+      <c r="F42" s="259" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="258"/>
-      <c r="H41" s="154" t="s">
+      <c r="G42" s="262"/>
+      <c r="H42" s="154" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="94">
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="94">
         <v>1</v>
       </c>
-      <c r="B42" s="95" t="s">
+      <c r="B43" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="244" t="s">
+      <c r="C43" s="248" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="245"/>
-      <c r="E42" s="246"/>
-      <c r="F42" s="244" t="s">
+      <c r="D43" s="249"/>
+      <c r="E43" s="250"/>
+      <c r="F43" s="248" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="246"/>
-      <c r="H42" s="133" t="s">
+      <c r="G43" s="250"/>
+      <c r="H43" s="133" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="84">
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="84">
         <v>2</v>
       </c>
-      <c r="B43" s="132" t="s">
+      <c r="B44" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="259" t="s">
+      <c r="C44" s="263" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="260"/>
-      <c r="E43" s="261"/>
-      <c r="F43" s="262" t="s">
+      <c r="D44" s="264"/>
+      <c r="E44" s="265"/>
+      <c r="F44" s="266" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="263"/>
-      <c r="H43" s="145" t="s">
+      <c r="G44" s="267"/>
+      <c r="H44" s="145" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="227"/>
-      <c r="D44" s="228"/>
-      <c r="E44" s="229"/>
-      <c r="F44" s="227"/>
-      <c r="G44" s="229"/>
-      <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="228"/>
-      <c r="E45" s="229"/>
-      <c r="F45" s="227"/>
-      <c r="G45" s="229"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="233"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A46" s="87"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="230"/>
-      <c r="D46" s="241"/>
-      <c r="E46" s="231"/>
-      <c r="F46" s="247"/>
-      <c r="G46" s="248"/>
-      <c r="H46" s="89"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="231"/>
+      <c r="D46" s="232"/>
+      <c r="E46" s="233"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="233"/>
+      <c r="H46" s="86"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="234"/>
+      <c r="D47" s="245"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="251"/>
+      <c r="G47" s="252"/>
+      <c r="H47" s="89"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A48" s="140" t="s">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="140"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A49" s="141" t="s">
+      <c r="B49" s="140"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="148"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="153" t="s">
+      <c r="B50" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="255" t="s">
+      <c r="C50" s="259" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="257"/>
-      <c r="E49" s="256"/>
-      <c r="F49" s="253" t="s">
+      <c r="D50" s="261"/>
+      <c r="E50" s="260"/>
+      <c r="F50" s="257" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="264"/>
-      <c r="H49" s="143" t="s">
+      <c r="G50" s="268"/>
+      <c r="H50" s="143" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="155"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="259"/>
-      <c r="D50" s="260"/>
-      <c r="E50" s="261"/>
-      <c r="F50" s="259"/>
-      <c r="G50" s="261"/>
-      <c r="H50" s="156"/>
-    </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="84"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="227"/>
-      <c r="D51" s="228"/>
-      <c r="E51" s="229"/>
-      <c r="F51" s="227"/>
-      <c r="G51" s="229"/>
-      <c r="H51" s="86"/>
+      <c r="A51" s="155"/>
+      <c r="B51" s="132"/>
+      <c r="C51" s="263"/>
+      <c r="D51" s="264"/>
+      <c r="E51" s="265"/>
+      <c r="F51" s="263"/>
+      <c r="G51" s="265"/>
+      <c r="H51" s="156"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="228"/>
-      <c r="E52" s="229"/>
-      <c r="F52" s="227"/>
-      <c r="G52" s="229"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="232"/>
+      <c r="E52" s="233"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="233"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="227"/>
-      <c r="D53" s="228"/>
-      <c r="E53" s="229"/>
-      <c r="F53" s="227"/>
-      <c r="G53" s="229"/>
+      <c r="C53" s="231"/>
+      <c r="D53" s="232"/>
+      <c r="E53" s="233"/>
+      <c r="F53" s="231"/>
+      <c r="G53" s="233"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A54" s="87"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="230"/>
-      <c r="D54" s="241"/>
-      <c r="E54" s="231"/>
-      <c r="F54" s="247"/>
-      <c r="G54" s="248"/>
-      <c r="H54" s="89"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="231"/>
+      <c r="D54" s="232"/>
+      <c r="E54" s="233"/>
+      <c r="F54" s="231"/>
+      <c r="G54" s="233"/>
+      <c r="H54" s="86"/>
+    </row>
+    <row r="55" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A55" s="87"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="234"/>
+      <c r="D55" s="245"/>
+      <c r="E55" s="235"/>
+      <c r="F55" s="251"/>
+      <c r="G55" s="252"/>
+      <c r="H55" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G55"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -6801,7 +6932,8 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
@@ -6821,8 +6953,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -6922,42 +7054,42 @@
         <v>63</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="222" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -6978,10 +7110,10 @@
       <c r="B10" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="221" t="s">
+      <c r="C10" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="222"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="48" t="s">
         <v>71</v>
       </c>
@@ -7002,10 +7134,10 @@
       <c r="B11" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="223" t="s">
+      <c r="C11" s="227" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="224"/>
+      <c r="D11" s="228"/>
       <c r="E11" s="63" t="s">
         <v>94</v>
       </c>
@@ -7024,10 +7156,10 @@
       <c r="B12" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="216" t="s">
+      <c r="C12" s="220" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="217"/>
+      <c r="D12" s="221"/>
       <c r="E12" s="68" t="s">
         <v>103</v>
       </c>
@@ -7044,12 +7176,12 @@
       <c r="B13" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="216" t="s">
+      <c r="C13" s="220" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="217"/>
+      <c r="D13" s="221"/>
       <c r="E13" s="68" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>76</v>
@@ -7062,14 +7194,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="220" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="216" t="s">
+      <c r="D14" s="221"/>
+      <c r="E14" s="73" t="s">
         <v>108</v>
-      </c>
-      <c r="D14" s="217"/>
-      <c r="E14" s="73" t="s">
-        <v>109</v>
       </c>
       <c r="F14" s="63" t="s">
         <v>76</v>
@@ -7082,14 +7214,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="220" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="216" t="s">
+      <c r="D15" s="221"/>
+      <c r="E15" s="73" t="s">
         <v>111</v>
-      </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="73" t="s">
-        <v>112</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="74"/>
@@ -7100,14 +7232,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="220" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="216" t="s">
+      <c r="D16" s="221"/>
+      <c r="E16" s="73" t="s">
         <v>114</v>
-      </c>
-      <c r="D16" s="217"/>
-      <c r="E16" s="73" t="s">
-        <v>115</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="74"/>
@@ -7116,8 +7248,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="217"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="221"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -7126,8 +7258,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="217"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="221"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -7136,8 +7268,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="217"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="221"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -7146,8 +7278,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="217"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="221"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -7156,8 +7288,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="221"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -7166,8 +7298,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="217"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="221"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -7176,8 +7308,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="221"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -7186,8 +7318,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="217"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="221"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -7196,8 +7328,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="217"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="221"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -7206,8 +7338,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="221"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -7216,8 +7348,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="217"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="221"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -7226,8 +7358,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="221"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7236,8 +7368,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="221"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7246,8 +7378,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="231"/>
+      <c r="C30" s="234"/>
+      <c r="D30" s="235"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -7279,10 +7411,10 @@
       <c r="A33" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="232" t="s">
+      <c r="B33" s="236" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="233"/>
+      <c r="C33" s="237"/>
       <c r="D33" s="54" t="s">
         <v>80</v>
       </c>
@@ -7297,51 +7429,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="234"/>
-      <c r="C34" s="235"/>
-      <c r="D34" s="236"/>
-      <c r="E34" s="237"/>
-      <c r="F34" s="238"/>
+      <c r="B34" s="238"/>
+      <c r="C34" s="239"/>
+      <c r="D34" s="240"/>
+      <c r="E34" s="241"/>
+      <c r="F34" s="242"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="225"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="227"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="229"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="233"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="225"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="227"/>
-      <c r="E36" s="228"/>
-      <c r="F36" s="229"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="231"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="233"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="225"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="227"/>
-      <c r="E37" s="228"/>
-      <c r="F37" s="229"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="231"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="233"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="239"/>
-      <c r="C38" s="240"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="241"/>
-      <c r="F38" s="231"/>
+      <c r="B38" s="243"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="234"/>
+      <c r="E38" s="245"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7374,15 +7506,15 @@
       <c r="B41" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="232" t="s">
+      <c r="C41" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="242"/>
-      <c r="E41" s="233"/>
-      <c r="F41" s="232" t="s">
+      <c r="D41" s="246"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="236" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="243"/>
+      <c r="G41" s="247"/>
       <c r="H41" s="58" t="s">
         <v>85</v>
       </c>
@@ -7390,51 +7522,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="236"/>
-      <c r="D42" s="237"/>
-      <c r="E42" s="238"/>
-      <c r="F42" s="236"/>
-      <c r="G42" s="238"/>
+      <c r="C42" s="240"/>
+      <c r="D42" s="241"/>
+      <c r="E42" s="242"/>
+      <c r="F42" s="240"/>
+      <c r="G42" s="242"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="227"/>
-      <c r="D43" s="228"/>
-      <c r="E43" s="229"/>
-      <c r="F43" s="227"/>
-      <c r="G43" s="229"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="233"/>
+      <c r="F43" s="231"/>
+      <c r="G43" s="233"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="227"/>
-      <c r="D44" s="228"/>
-      <c r="E44" s="229"/>
-      <c r="F44" s="227"/>
-      <c r="G44" s="229"/>
+      <c r="C44" s="231"/>
+      <c r="D44" s="232"/>
+      <c r="E44" s="233"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="233"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="228"/>
-      <c r="E45" s="229"/>
-      <c r="F45" s="227"/>
-      <c r="G45" s="229"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="233"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="230"/>
-      <c r="D46" s="241"/>
-      <c r="E46" s="231"/>
-      <c r="F46" s="247"/>
-      <c r="G46" s="248"/>
+      <c r="C46" s="234"/>
+      <c r="D46" s="245"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="251"/>
+      <c r="G46" s="252"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7466,15 +7598,15 @@
       <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="232" t="s">
+      <c r="C49" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="242"/>
-      <c r="E49" s="233"/>
-      <c r="F49" s="221" t="s">
+      <c r="D49" s="246"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="249"/>
+      <c r="G49" s="253"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -7486,15 +7618,15 @@
       <c r="B50" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="244" t="s">
+      <c r="C50" s="248" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="245"/>
-      <c r="E50" s="246"/>
-      <c r="F50" s="244" t="s">
+      <c r="D50" s="249"/>
+      <c r="E50" s="250"/>
+      <c r="F50" s="248" t="s">
         <v>58</v>
       </c>
-      <c r="G50" s="246"/>
+      <c r="G50" s="250"/>
       <c r="H50" s="96" t="s">
         <v>97</v>
       </c>
@@ -7502,41 +7634,41 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="227"/>
-      <c r="D51" s="228"/>
-      <c r="E51" s="229"/>
-      <c r="F51" s="227"/>
-      <c r="G51" s="229"/>
+      <c r="C51" s="231"/>
+      <c r="D51" s="232"/>
+      <c r="E51" s="233"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="233"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="228"/>
-      <c r="E52" s="229"/>
-      <c r="F52" s="227"/>
-      <c r="G52" s="229"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="232"/>
+      <c r="E52" s="233"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="233"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="227"/>
-      <c r="D53" s="228"/>
-      <c r="E53" s="229"/>
-      <c r="F53" s="227"/>
-      <c r="G53" s="229"/>
+      <c r="C53" s="231"/>
+      <c r="D53" s="232"/>
+      <c r="E53" s="233"/>
+      <c r="F53" s="231"/>
+      <c r="G53" s="233"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="230"/>
-      <c r="D54" s="241"/>
-      <c r="E54" s="231"/>
-      <c r="F54" s="247"/>
-      <c r="G54" s="248"/>
+      <c r="C54" s="234"/>
+      <c r="D54" s="245"/>
+      <c r="E54" s="235"/>
+      <c r="F54" s="251"/>
+      <c r="G54" s="252"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -7614,7 +7746,7 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -7653,7 +7785,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>27</v>
@@ -7713,42 +7845,42 @@
         <v>63</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="220"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="224"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="218" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="C8" s="222" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -7769,10 +7901,10 @@
       <c r="B10" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="221" t="s">
+      <c r="C10" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="222"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="48" t="s">
         <v>71</v>
       </c>
@@ -7791,12 +7923,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="223" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="224"/>
+      <c r="D11" s="228"/>
       <c r="E11" s="63" t="s">
         <v>94</v>
       </c>
@@ -7815,10 +7947,10 @@
       <c r="B12" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="216" t="s">
+      <c r="C12" s="220" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="217"/>
+      <c r="D12" s="221"/>
       <c r="E12" s="63" t="s">
         <v>94</v>
       </c>
@@ -7837,10 +7969,10 @@
       <c r="B13" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="216" t="s">
+      <c r="C13" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="217"/>
+      <c r="D13" s="221"/>
       <c r="E13" s="68" t="s">
         <v>75</v>
       </c>
@@ -7857,14 +7989,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="220" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="216" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="217"/>
+      <c r="D14" s="221"/>
       <c r="E14" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="63" t="s">
         <v>76</v>
@@ -7877,14 +8009,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="220" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="216" t="s">
+      <c r="D15" s="221"/>
+      <c r="E15" s="73" t="s">
         <v>123</v>
-      </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="73" t="s">
-        <v>124</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>76</v>
@@ -7897,12 +8029,12 @@
         <v>6</v>
       </c>
       <c r="B16" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="220" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="216" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="217"/>
+      <c r="D16" s="221"/>
       <c r="E16" s="73" t="s">
         <v>94</v>
       </c>
@@ -7917,12 +8049,12 @@
         <v>7</v>
       </c>
       <c r="B17" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="220" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="216" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="217"/>
+      <c r="D17" s="221"/>
       <c r="E17" s="73" t="s">
         <v>94</v>
       </c>
@@ -7937,14 +8069,14 @@
         <v>8</v>
       </c>
       <c r="B18" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="220" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="216" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="217"/>
+      <c r="D18" s="221"/>
       <c r="E18" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="74"/>
@@ -7955,14 +8087,14 @@
         <v>9</v>
       </c>
       <c r="B19" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="220" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="216" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="217"/>
+      <c r="D19" s="221"/>
       <c r="E19" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="74"/>
@@ -7971,8 +8103,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="217"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="221"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -7981,8 +8113,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="221"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -7991,8 +8123,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="217"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="221"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -8001,8 +8133,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="221"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -8011,8 +8143,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="217"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="221"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -8021,8 +8153,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="217"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="221"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -8031,8 +8163,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="221"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -8041,8 +8173,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="217"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="221"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -8051,8 +8183,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="221"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -8061,8 +8193,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="221"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -8071,8 +8203,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="231"/>
+      <c r="C30" s="234"/>
+      <c r="D30" s="235"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -8104,10 +8236,10 @@
       <c r="A33" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="232" t="s">
+      <c r="B33" s="236" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="233"/>
+      <c r="C33" s="237"/>
       <c r="D33" s="54" t="s">
         <v>80</v>
       </c>
@@ -8122,51 +8254,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="234"/>
-      <c r="C34" s="235"/>
-      <c r="D34" s="236"/>
-      <c r="E34" s="237"/>
-      <c r="F34" s="238"/>
+      <c r="B34" s="238"/>
+      <c r="C34" s="239"/>
+      <c r="D34" s="240"/>
+      <c r="E34" s="241"/>
+      <c r="F34" s="242"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="225"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="227"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="229"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="233"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="225"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="227"/>
-      <c r="E36" s="228"/>
-      <c r="F36" s="229"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="231"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="233"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="225"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="227"/>
-      <c r="E37" s="228"/>
-      <c r="F37" s="229"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="231"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="233"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="239"/>
-      <c r="C38" s="240"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="241"/>
-      <c r="F38" s="231"/>
+      <c r="B38" s="243"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="234"/>
+      <c r="E38" s="245"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -8199,15 +8331,15 @@
       <c r="B41" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="232" t="s">
+      <c r="C41" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="242"/>
-      <c r="E41" s="233"/>
-      <c r="F41" s="232" t="s">
+      <c r="D41" s="246"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="236" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="243"/>
+      <c r="G41" s="247"/>
       <c r="H41" s="58" t="s">
         <v>85</v>
       </c>
@@ -8219,15 +8351,15 @@
       <c r="B42" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="244" t="s">
+      <c r="C42" s="248" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="245"/>
-      <c r="E42" s="246"/>
-      <c r="F42" s="244" t="s">
+      <c r="D42" s="249"/>
+      <c r="E42" s="250"/>
+      <c r="F42" s="248" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="246"/>
+      <c r="G42" s="250"/>
       <c r="H42" s="96" t="s">
         <v>97</v>
       </c>
@@ -8239,15 +8371,15 @@
       <c r="B43" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="262" t="s">
+      <c r="C43" s="266" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="265"/>
-      <c r="E43" s="263"/>
-      <c r="F43" s="262" t="s">
+      <c r="D43" s="269"/>
+      <c r="E43" s="267"/>
+      <c r="F43" s="266" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="263"/>
+      <c r="G43" s="267"/>
       <c r="H43" s="133" t="s">
         <v>99</v>
       </c>
@@ -8255,31 +8387,31 @@
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="227"/>
-      <c r="D44" s="228"/>
-      <c r="E44" s="229"/>
-      <c r="F44" s="227"/>
-      <c r="G44" s="229"/>
+      <c r="C44" s="231"/>
+      <c r="D44" s="232"/>
+      <c r="E44" s="233"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="233"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="228"/>
-      <c r="E45" s="229"/>
-      <c r="F45" s="227"/>
-      <c r="G45" s="229"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="233"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="230"/>
-      <c r="D46" s="241"/>
-      <c r="E46" s="231"/>
-      <c r="F46" s="247"/>
-      <c r="G46" s="248"/>
+      <c r="C46" s="234"/>
+      <c r="D46" s="245"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="251"/>
+      <c r="G46" s="252"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8311,15 +8443,15 @@
       <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="232" t="s">
+      <c r="C49" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="242"/>
-      <c r="E49" s="233"/>
-      <c r="F49" s="221" t="s">
+      <c r="D49" s="246"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="249"/>
+      <c r="G49" s="253"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -8329,59 +8461,59 @@
         <v>1</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="244" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="248" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="249"/>
+      <c r="E50" s="250"/>
+      <c r="F50" s="248" t="s">
         <v>133</v>
       </c>
-      <c r="D50" s="245"/>
-      <c r="E50" s="246"/>
-      <c r="F50" s="244" t="s">
-        <v>134</v>
-      </c>
-      <c r="G50" s="246"/>
+      <c r="G50" s="250"/>
       <c r="H50" s="96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="227"/>
-      <c r="D51" s="228"/>
-      <c r="E51" s="229"/>
-      <c r="F51" s="227"/>
-      <c r="G51" s="229"/>
+      <c r="C51" s="231"/>
+      <c r="D51" s="232"/>
+      <c r="E51" s="233"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="233"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="228"/>
-      <c r="E52" s="229"/>
-      <c r="F52" s="227"/>
-      <c r="G52" s="229"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="232"/>
+      <c r="E52" s="233"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="233"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="227"/>
-      <c r="D53" s="228"/>
-      <c r="E53" s="229"/>
-      <c r="F53" s="227"/>
-      <c r="G53" s="229"/>
+      <c r="C53" s="231"/>
+      <c r="D53" s="232"/>
+      <c r="E53" s="233"/>
+      <c r="F53" s="231"/>
+      <c r="G53" s="233"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="230"/>
-      <c r="D54" s="241"/>
-      <c r="E54" s="231"/>
-      <c r="F54" s="247"/>
-      <c r="G54" s="248"/>
+      <c r="C54" s="234"/>
+      <c r="D54" s="245"/>
+      <c r="E54" s="235"/>
+      <c r="F54" s="251"/>
+      <c r="G54" s="252"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -8459,7 +8591,7 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
@@ -8498,7 +8630,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>27</v>
@@ -8558,42 +8690,42 @@
         <v>63</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="220"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="224"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="266" t="s">
+      <c r="C7" s="270" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="268"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="272"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="218" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="220"/>
+      <c r="C8" s="222" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -8614,10 +8746,10 @@
       <c r="B10" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="221" t="s">
+      <c r="C10" s="225" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="222"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="48" t="s">
         <v>71</v>
       </c>
@@ -8636,12 +8768,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="227" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="223" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="224"/>
+      <c r="D11" s="228"/>
       <c r="E11" s="63" t="s">
         <v>94</v>
       </c>
@@ -8660,10 +8792,10 @@
       <c r="B12" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="216" t="s">
+      <c r="C12" s="220" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="217"/>
+      <c r="D12" s="221"/>
       <c r="E12" s="63" t="s">
         <v>94</v>
       </c>
@@ -8680,12 +8812,12 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="220" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="216" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="217"/>
+      <c r="D13" s="221"/>
       <c r="E13" s="63" t="s">
         <v>94</v>
       </c>
@@ -8702,14 +8834,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="220" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="216" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="217"/>
+      <c r="D14" s="221"/>
       <c r="E14" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="63" t="s">
         <v>76</v>
@@ -8722,14 +8854,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="220" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="216" t="s">
+      <c r="D15" s="221"/>
+      <c r="E15" s="73" t="s">
         <v>123</v>
-      </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="73" t="s">
-        <v>124</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>76</v>
@@ -8742,12 +8874,12 @@
         <v>6</v>
       </c>
       <c r="B16" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="220" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="216" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="217"/>
+      <c r="D16" s="221"/>
       <c r="E16" s="73" t="s">
         <v>94</v>
       </c>
@@ -8762,12 +8894,12 @@
         <v>7</v>
       </c>
       <c r="B17" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="220" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="216" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="217"/>
+      <c r="D17" s="221"/>
       <c r="E17" s="73" t="s">
         <v>94</v>
       </c>
@@ -8782,14 +8914,14 @@
         <v>8</v>
       </c>
       <c r="B18" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="220" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="216" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="217"/>
+      <c r="D18" s="221"/>
       <c r="E18" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="74"/>
@@ -8800,14 +8932,14 @@
         <v>9</v>
       </c>
       <c r="B19" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="220" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="216" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="217"/>
+      <c r="D19" s="221"/>
       <c r="E19" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="74"/>
@@ -8816,8 +8948,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="216"/>
-      <c r="D20" s="217"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="221"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -8826,8 +8958,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="221"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -8836,8 +8968,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="217"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="221"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -8846,8 +8978,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="221"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -8856,8 +8988,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="216"/>
-      <c r="D24" s="217"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="221"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -8866,8 +8998,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="216"/>
-      <c r="D25" s="217"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="221"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -8876,8 +9008,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="221"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -8886,8 +9018,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="217"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="221"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -8896,8 +9028,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="221"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -8906,8 +9038,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="221"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -8916,8 +9048,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="231"/>
+      <c r="C30" s="234"/>
+      <c r="D30" s="235"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -8949,10 +9081,10 @@
       <c r="A33" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="232" t="s">
+      <c r="B33" s="236" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="233"/>
+      <c r="C33" s="237"/>
       <c r="D33" s="54" t="s">
         <v>80</v>
       </c>
@@ -8967,51 +9099,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="234"/>
-      <c r="C34" s="235"/>
-      <c r="D34" s="236"/>
-      <c r="E34" s="237"/>
-      <c r="F34" s="238"/>
+      <c r="B34" s="238"/>
+      <c r="C34" s="239"/>
+      <c r="D34" s="240"/>
+      <c r="E34" s="241"/>
+      <c r="F34" s="242"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="225"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="227"/>
-      <c r="E35" s="228"/>
-      <c r="F35" s="229"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="233"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="225"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="227"/>
-      <c r="E36" s="228"/>
-      <c r="F36" s="229"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="230"/>
+      <c r="D36" s="231"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="233"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="225"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="227"/>
-      <c r="E37" s="228"/>
-      <c r="F37" s="229"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="230"/>
+      <c r="D37" s="231"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="233"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="239"/>
-      <c r="C38" s="240"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="241"/>
-      <c r="F38" s="231"/>
+      <c r="B38" s="243"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="234"/>
+      <c r="E38" s="245"/>
+      <c r="F38" s="235"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -9044,15 +9176,15 @@
       <c r="B41" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="232" t="s">
+      <c r="C41" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="242"/>
-      <c r="E41" s="233"/>
-      <c r="F41" s="232" t="s">
+      <c r="D41" s="246"/>
+      <c r="E41" s="237"/>
+      <c r="F41" s="236" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="243"/>
+      <c r="G41" s="247"/>
       <c r="H41" s="58" t="s">
         <v>85</v>
       </c>
@@ -9064,15 +9196,15 @@
       <c r="B42" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="244" t="s">
+      <c r="C42" s="248" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="245"/>
-      <c r="E42" s="246"/>
-      <c r="F42" s="244" t="s">
+      <c r="D42" s="249"/>
+      <c r="E42" s="250"/>
+      <c r="F42" s="248" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="246"/>
+      <c r="G42" s="250"/>
       <c r="H42" s="96" t="s">
         <v>97</v>
       </c>
@@ -9082,49 +9214,49 @@
         <v>2</v>
       </c>
       <c r="B43" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="262" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="266" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="269"/>
+      <c r="E43" s="267"/>
+      <c r="F43" s="266" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="265"/>
-      <c r="E43" s="263"/>
-      <c r="F43" s="262" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="263"/>
+      <c r="G43" s="267"/>
       <c r="H43" s="133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="227"/>
-      <c r="D44" s="228"/>
-      <c r="E44" s="229"/>
-      <c r="F44" s="227"/>
-      <c r="G44" s="229"/>
+      <c r="C44" s="231"/>
+      <c r="D44" s="232"/>
+      <c r="E44" s="233"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="233"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="228"/>
-      <c r="E45" s="229"/>
-      <c r="F45" s="227"/>
-      <c r="G45" s="229"/>
+      <c r="C45" s="231"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="231"/>
+      <c r="G45" s="233"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="230"/>
-      <c r="D46" s="241"/>
-      <c r="E46" s="231"/>
-      <c r="F46" s="247"/>
-      <c r="G46" s="248"/>
+      <c r="C46" s="234"/>
+      <c r="D46" s="245"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="251"/>
+      <c r="G46" s="252"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9156,15 +9288,15 @@
       <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="232" t="s">
+      <c r="C49" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="242"/>
-      <c r="E49" s="233"/>
-      <c r="F49" s="221" t="s">
+      <c r="D49" s="246"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="225" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="249"/>
+      <c r="G49" s="253"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -9172,51 +9304,51 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="129"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="244"/>
-      <c r="D50" s="245"/>
-      <c r="E50" s="246"/>
-      <c r="F50" s="244"/>
-      <c r="G50" s="246"/>
+      <c r="C50" s="248"/>
+      <c r="D50" s="249"/>
+      <c r="E50" s="250"/>
+      <c r="F50" s="248"/>
+      <c r="G50" s="250"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="227"/>
-      <c r="D51" s="228"/>
-      <c r="E51" s="229"/>
-      <c r="F51" s="227"/>
-      <c r="G51" s="229"/>
+      <c r="C51" s="231"/>
+      <c r="D51" s="232"/>
+      <c r="E51" s="233"/>
+      <c r="F51" s="231"/>
+      <c r="G51" s="233"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="227"/>
-      <c r="D52" s="228"/>
-      <c r="E52" s="229"/>
-      <c r="F52" s="227"/>
-      <c r="G52" s="229"/>
+      <c r="C52" s="231"/>
+      <c r="D52" s="232"/>
+      <c r="E52" s="233"/>
+      <c r="F52" s="231"/>
+      <c r="G52" s="233"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="227"/>
-      <c r="D53" s="228"/>
-      <c r="E53" s="229"/>
-      <c r="F53" s="227"/>
-      <c r="G53" s="229"/>
+      <c r="C53" s="231"/>
+      <c r="D53" s="232"/>
+      <c r="E53" s="233"/>
+      <c r="F53" s="231"/>
+      <c r="G53" s="233"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="230"/>
-      <c r="D54" s="241"/>
-      <c r="E54" s="231"/>
-      <c r="F54" s="247"/>
-      <c r="G54" s="248"/>
+      <c r="C54" s="234"/>
+      <c r="D54" s="245"/>
+      <c r="E54" s="235"/>
+      <c r="F54" s="251"/>
+      <c r="G54" s="252"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -9292,10 +9424,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A10" zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -9309,7 +9441,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -9327,7 +9459,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="117"/>
       <c r="D2" s="117"/>
@@ -9338,7 +9470,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>27</v>
@@ -9373,7 +9505,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -9404,10 +9536,10 @@
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1">
       <c r="A6" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="116" t="s">
         <v>144</v>
-      </c>
-      <c r="B6" s="116" t="s">
-        <v>145</v>
       </c>
       <c r="C6" s="117"/>
       <c r="D6" s="117"/>
@@ -9424,7 +9556,7 @@
         <v>65</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="117"/>
       <c r="D7" s="117"/>
@@ -9443,13 +9575,13 @@
     <row r="9" spans="1:11" ht="21.75" customHeight="1">
       <c r="A9" s="97"/>
       <c r="F9" s="98"/>
-      <c r="G9" s="272" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="273"/>
-      <c r="I9" s="273"/>
-      <c r="J9" s="273"/>
-      <c r="K9" s="273"/>
+      <c r="G9" s="276" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="277"/>
+      <c r="I9" s="277"/>
+      <c r="J9" s="277"/>
+      <c r="K9" s="277"/>
     </row>
     <row r="10" spans="1:11" ht="21.75" customHeight="1">
       <c r="A10" s="97"/>
@@ -9459,105 +9591,105 @@
       <c r="E10" s="99"/>
       <c r="F10" s="100"/>
       <c r="G10" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="I10" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="102" t="s">
+      <c r="J10" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="J10" s="102" t="s">
+      <c r="K10" s="102" t="s">
         <v>151</v>
-      </c>
-      <c r="K10" s="102" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1">
       <c r="A11" s="97"/>
-      <c r="B11" s="274" t="s">
+      <c r="B11" s="278" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="273" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="269" t="s">
+      <c r="D11" s="274"/>
+      <c r="E11" s="274"/>
+      <c r="F11" s="275"/>
+      <c r="G11" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="270"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="271"/>
-      <c r="G11" s="102" t="s">
+      <c r="H11" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="102" t="s">
-        <v>156</v>
-      </c>
       <c r="I11" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J11" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K11" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1">
       <c r="A12" s="97"/>
-      <c r="B12" s="275"/>
-      <c r="C12" s="269" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="270"/>
-      <c r="E12" s="270"/>
-      <c r="F12" s="271"/>
+      <c r="B12" s="279"/>
+      <c r="C12" s="273" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="274"/>
+      <c r="E12" s="274"/>
+      <c r="F12" s="275"/>
       <c r="G12" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="H12" s="102" t="s">
-        <v>156</v>
-      </c>
       <c r="I12" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J12" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K12" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="97"/>
-      <c r="B13" s="275"/>
-      <c r="C13" s="269" t="s">
+      <c r="B13" s="279"/>
+      <c r="C13" s="273" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="274"/>
+      <c r="E13" s="274"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="271"/>
-      <c r="G13" s="102" t="s">
+      <c r="H13" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="I13" s="102" t="s">
+      <c r="J13" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="J13" s="102" t="s">
-        <v>161</v>
-      </c>
       <c r="K13" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1">
       <c r="A14" s="97"/>
-      <c r="B14" s="275"/>
-      <c r="C14" s="269"/>
-      <c r="D14" s="270"/>
-      <c r="E14" s="270"/>
-      <c r="F14" s="271"/>
+      <c r="B14" s="279"/>
+      <c r="C14" s="273"/>
+      <c r="D14" s="274"/>
+      <c r="E14" s="274"/>
+      <c r="F14" s="275"/>
       <c r="G14" s="102"/>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -9566,187 +9698,187 @@
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1">
       <c r="A15" s="97"/>
-      <c r="B15" s="275"/>
-      <c r="C15" s="269" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="270"/>
-      <c r="E15" s="270"/>
-      <c r="F15" s="271"/>
+      <c r="B15" s="279"/>
+      <c r="C15" s="273" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="274"/>
+      <c r="E15" s="274"/>
+      <c r="F15" s="275"/>
       <c r="G15" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="102" t="s">
-        <v>159</v>
-      </c>
-      <c r="I15" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="J15" s="102" t="s">
-        <v>156</v>
-      </c>
       <c r="K15" s="102" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
       <c r="A16" s="97"/>
-      <c r="B16" s="275"/>
-      <c r="C16" s="269" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="270"/>
-      <c r="E16" s="270"/>
-      <c r="F16" s="271"/>
+      <c r="B16" s="279"/>
+      <c r="C16" s="163" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="164"/>
       <c r="G16" s="102" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="H16" s="102" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="K16" s="102" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1">
       <c r="A17" s="97"/>
-      <c r="B17" s="275"/>
-      <c r="C17" s="269" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="270"/>
-      <c r="E17" s="270"/>
-      <c r="F17" s="271"/>
+      <c r="B17" s="279"/>
+      <c r="C17" s="273" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="274"/>
+      <c r="E17" s="274"/>
+      <c r="F17" s="275"/>
       <c r="G17" s="102" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H17" s="102" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J17" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K17" s="102" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="275"/>
-      <c r="C18" s="269" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="270"/>
-      <c r="E18" s="270"/>
-      <c r="F18" s="271"/>
+      <c r="B18" s="279"/>
+      <c r="C18" s="163" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="164"/>
       <c r="G18" s="102" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="H18" s="102" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="I18" s="102" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="J18" s="102" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="K18" s="102" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="269"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
+      <c r="B19" s="279"/>
+      <c r="C19" s="273" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="274"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="102" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1">
       <c r="A20" s="97"/>
-      <c r="B20" s="275"/>
-      <c r="C20" s="269" t="s">
+      <c r="B20" s="279"/>
+      <c r="C20" s="163" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="I20" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" s="102" t="s">
         <v>169</v>
-      </c>
-      <c r="D20" s="270"/>
-      <c r="E20" s="270"/>
-      <c r="F20" s="271"/>
-      <c r="G20" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="I20" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="J20" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" s="102" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1">
       <c r="A21" s="97"/>
-      <c r="B21" s="275"/>
-      <c r="C21" s="269" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="270"/>
-      <c r="E21" s="270"/>
-      <c r="F21" s="271"/>
-      <c r="G21" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" s="102" t="s">
-        <v>155</v>
-      </c>
-      <c r="I21" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="J21" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="K21" s="102" t="s">
-        <v>156</v>
-      </c>
+      <c r="B21" s="279"/>
+      <c r="C21" s="273"/>
+      <c r="D21" s="274"/>
+      <c r="E21" s="274"/>
+      <c r="F21" s="275"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1">
       <c r="A22" s="97"/>
-      <c r="B22" s="275"/>
-      <c r="C22" s="269" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="270"/>
-      <c r="E22" s="270"/>
-      <c r="F22" s="271"/>
+      <c r="B22" s="279"/>
+      <c r="C22" s="273" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="274"/>
+      <c r="E22" s="274"/>
+      <c r="F22" s="275"/>
       <c r="G22" s="102" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H22" s="102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I22" s="102" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J22" s="102" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K22" s="102" t="s">
         <v>155</v>
@@ -9754,62 +9886,86 @@
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1">
       <c r="A23" s="97"/>
-      <c r="B23" s="275"/>
-      <c r="C23" s="269" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="270"/>
-      <c r="E23" s="270"/>
-      <c r="F23" s="271"/>
+      <c r="B23" s="279"/>
+      <c r="C23" s="273" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="274"/>
+      <c r="E23" s="274"/>
+      <c r="F23" s="275"/>
       <c r="G23" s="102" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H23" s="102" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I23" s="102" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J23" s="102" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="K23" s="102" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1">
       <c r="A24" s="97"/>
-      <c r="B24" s="275"/>
-      <c r="C24" s="269"/>
-      <c r="D24" s="270"/>
-      <c r="E24" s="270"/>
-      <c r="F24" s="271"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
+      <c r="B24" s="279"/>
+      <c r="C24" s="273" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="274"/>
+      <c r="E24" s="274"/>
+      <c r="F24" s="275"/>
+      <c r="G24" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="102" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1">
       <c r="A25" s="97"/>
-      <c r="B25" s="275"/>
-      <c r="C25" s="269"/>
-      <c r="D25" s="270"/>
-      <c r="E25" s="270"/>
-      <c r="F25" s="271"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
+      <c r="B25" s="279"/>
+      <c r="C25" s="273" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="274"/>
+      <c r="E25" s="274"/>
+      <c r="F25" s="275"/>
+      <c r="G25" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="102" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="102" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1">
       <c r="A26" s="97"/>
-      <c r="B26" s="275"/>
-      <c r="C26" s="269"/>
-      <c r="D26" s="270"/>
-      <c r="E26" s="270"/>
-      <c r="F26" s="271"/>
+      <c r="B26" s="279"/>
+      <c r="C26" s="273"/>
+      <c r="D26" s="274"/>
+      <c r="E26" s="274"/>
+      <c r="F26" s="275"/>
       <c r="G26" s="102"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
@@ -9818,11 +9974,11 @@
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1">
       <c r="A27" s="97"/>
-      <c r="B27" s="275"/>
-      <c r="C27" s="269"/>
-      <c r="D27" s="270"/>
-      <c r="E27" s="270"/>
-      <c r="F27" s="271"/>
+      <c r="B27" s="279"/>
+      <c r="C27" s="273"/>
+      <c r="D27" s="274"/>
+      <c r="E27" s="274"/>
+      <c r="F27" s="275"/>
       <c r="G27" s="102"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
@@ -9831,11 +9987,11 @@
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1">
       <c r="A28" s="97"/>
-      <c r="B28" s="275"/>
-      <c r="C28" s="269"/>
-      <c r="D28" s="270"/>
-      <c r="E28" s="270"/>
-      <c r="F28" s="271"/>
+      <c r="B28" s="279"/>
+      <c r="C28" s="273"/>
+      <c r="D28" s="274"/>
+      <c r="E28" s="274"/>
+      <c r="F28" s="275"/>
       <c r="G28" s="102"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
@@ -9844,11 +10000,11 @@
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1">
       <c r="A29" s="97"/>
-      <c r="B29" s="275"/>
-      <c r="C29" s="269"/>
-      <c r="D29" s="270"/>
-      <c r="E29" s="270"/>
-      <c r="F29" s="271"/>
+      <c r="B29" s="279"/>
+      <c r="C29" s="273"/>
+      <c r="D29" s="274"/>
+      <c r="E29" s="274"/>
+      <c r="F29" s="275"/>
       <c r="G29" s="102"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
@@ -9857,37 +10013,37 @@
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1">
       <c r="A30" s="97"/>
-      <c r="B30" s="275"/>
-      <c r="C30" s="269"/>
-      <c r="D30" s="270"/>
-      <c r="E30" s="270"/>
-      <c r="F30" s="271"/>
+      <c r="B30" s="279"/>
+      <c r="C30" s="273"/>
+      <c r="D30" s="274"/>
+      <c r="E30" s="274"/>
+      <c r="F30" s="275"/>
       <c r="G30" s="102"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
       <c r="J30" s="102"/>
       <c r="K30" s="102"/>
     </row>
-    <row r="31" spans="1:11" ht="23.25" customHeight="1">
+    <row r="31" spans="1:11" ht="22.5" customHeight="1">
       <c r="A31" s="97"/>
-      <c r="B31" s="275"/>
-      <c r="C31" s="269"/>
-      <c r="D31" s="270"/>
-      <c r="E31" s="270"/>
-      <c r="F31" s="271"/>
+      <c r="B31" s="279"/>
+      <c r="C31" s="273"/>
+      <c r="D31" s="274"/>
+      <c r="E31" s="274"/>
+      <c r="F31" s="275"/>
       <c r="G31" s="102"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
       <c r="K31" s="102"/>
     </row>
-    <row r="32" spans="1:11" ht="23.25" customHeight="1">
+    <row r="32" spans="1:11" ht="22.5" customHeight="1">
       <c r="A32" s="97"/>
-      <c r="B32" s="275"/>
-      <c r="C32" s="269"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="270"/>
-      <c r="F32" s="271"/>
+      <c r="B32" s="279"/>
+      <c r="C32" s="273"/>
+      <c r="D32" s="274"/>
+      <c r="E32" s="274"/>
+      <c r="F32" s="275"/>
       <c r="G32" s="102"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
@@ -9896,72 +10052,97 @@
     </row>
     <row r="33" spans="1:11" ht="23.25" customHeight="1">
       <c r="A33" s="97"/>
-      <c r="B33" s="276"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="270"/>
-      <c r="F33" s="271"/>
+      <c r="B33" s="279"/>
+      <c r="C33" s="273"/>
+      <c r="D33" s="274"/>
+      <c r="E33" s="274"/>
+      <c r="F33" s="275"/>
       <c r="G33" s="102"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
       <c r="K33" s="102"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="23.25" customHeight="1">
       <c r="A34" s="97"/>
-      <c r="C34" s="269"/>
-      <c r="D34" s="270"/>
-      <c r="E34" s="270"/>
-      <c r="F34" s="271"/>
+      <c r="B34" s="279"/>
+      <c r="C34" s="273"/>
+      <c r="D34" s="274"/>
+      <c r="E34" s="274"/>
+      <c r="F34" s="275"/>
       <c r="G34" s="102"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
       <c r="K34" s="102"/>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="103"/>
-      <c r="B35" s="104"/>
+    <row r="35" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A35" s="97"/>
+      <c r="B35" s="280"/>
+      <c r="C35" s="273"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="274"/>
+      <c r="F35" s="275"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="102"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
+      <c r="A36" s="97"/>
+      <c r="C36" s="273"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="274"/>
+      <c r="F36" s="275"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="103"/>
+      <c r="B37" s="104"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="25">
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B11:B33"/>
+    <mergeCell ref="B11:B35"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
     <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03データベース設計書/03_データベース設計書(やまったー)完成版.xlsx
+++ b/03データベース設計書/03_データベース設計書(やまったー)完成版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\システム開発\GitHub\03データベース設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C024BE-D497-4C02-BA48-5DE6EA19F639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B77FAB-CBD8-4F58-A18D-B74608858D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,19 +18,21 @@
     <sheet name="ジャンル" sheetId="23" r:id="rId3"/>
     <sheet name="好きなジャンル" sheetId="24" r:id="rId4"/>
     <sheet name="ユーザー" sheetId="22" r:id="rId5"/>
-    <sheet name="投稿" sheetId="19" r:id="rId6"/>
-    <sheet name="返信" sheetId="20" r:id="rId7"/>
-    <sheet name="CRUD図 " sheetId="18" r:id="rId8"/>
+    <sheet name="プロフィールいいね一覧" sheetId="25" r:id="rId6"/>
+    <sheet name="投稿" sheetId="19" r:id="rId7"/>
+    <sheet name="返信" sheetId="20" r:id="rId8"/>
+    <sheet name="CRUD図 " sheetId="18" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'CRUD図 '!$A$1:$K$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'CRUD図 '!$A$1:$K$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ジャンル!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">プロフィールいいね一覧!$A$1:$H$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">ユーザー!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">好きなジャンル!$A$1:$H$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">投稿!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">投稿!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">返信!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">返信!$A$1:$H$55</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="206">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -926,6 +928,107 @@
   </si>
   <si>
     <t>R,D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロフィールいいね一覧</t>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>favorite post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分がいいねした投稿、返信情報</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いいねID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いいね対象ID</t>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>like_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>like_subject</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いいねした投稿、返信情報</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>favorite post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返信対象ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reply_subject</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NN</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2509,13 +2612,106 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2539,98 +2735,11 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2662,10 +2771,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2674,6 +2840,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2683,9 +2864,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2695,79 +2873,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2779,40 +2915,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2828,15 +2931,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2850,6 +2944,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -2896,22 +2999,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>196646</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>49162</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1422401</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>70428</xdr:rowOff>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>80229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088F3A5E-A1D4-1E53-E01E-7A41C25544CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8E54C1-7641-AD0E-8C24-29B6A97BF0B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,8 +3030,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="196646" y="6227097"/>
-          <a:ext cx="7772400" cy="3782105"/>
+          <a:off x="295275" y="6248400"/>
+          <a:ext cx="7772400" cy="4404579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3700,21 +3803,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="167" t="s">
+      <c r="U3" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="169"/>
-      <c r="W3" s="194">
+      <c r="V3" s="184"/>
+      <c r="W3" s="185">
         <v>45054</v>
       </c>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="169"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="186"/>
+      <c r="AA3" s="186"/>
+      <c r="AB3" s="186"/>
+      <c r="AC3" s="186"/>
+      <c r="AD3" s="186"/>
+      <c r="AE3" s="184"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3826,20 +3929,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="179" t="s">
+      <c r="F7" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="181"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="170"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -3857,86 +3960,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="188" t="s">
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="189"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="189"/>
-      <c r="Q8" s="190"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="178"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="179"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="178" t="s">
+      <c r="W8" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="178"/>
-      <c r="Y8" s="178"/>
-      <c r="Z8" s="178" t="s">
+      <c r="X8" s="167"/>
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="178"/>
-      <c r="AB8" s="178"/>
-      <c r="AC8" s="178" t="s">
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="167"/>
+      <c r="AC8" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="178"/>
-      <c r="AE8" s="178"/>
+      <c r="AD8" s="167"/>
+      <c r="AE8" s="167"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="30" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="185"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="192"/>
-      <c r="O9" s="192"/>
-      <c r="P9" s="192"/>
-      <c r="Q9" s="193"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="182"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="204" t="s">
+      <c r="W9" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="196"/>
-      <c r="Y9" s="197"/>
-      <c r="Z9" s="204" t="s">
+      <c r="X9" s="188"/>
+      <c r="Y9" s="189"/>
+      <c r="Z9" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="AA9" s="196"/>
-      <c r="AB9" s="197"/>
-      <c r="AC9" s="195" t="s">
+      <c r="AA9" s="188"/>
+      <c r="AB9" s="189"/>
+      <c r="AC9" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="AD9" s="196"/>
-      <c r="AE9" s="197"/>
+      <c r="AD9" s="188"/>
+      <c r="AE9" s="189"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3962,15 +4065,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="199"/>
-      <c r="Y10" s="200"/>
-      <c r="Z10" s="198"/>
-      <c r="AA10" s="199"/>
-      <c r="AB10" s="200"/>
-      <c r="AC10" s="198"/>
-      <c r="AD10" s="199"/>
-      <c r="AE10" s="200"/>
+      <c r="W10" s="190"/>
+      <c r="X10" s="191"/>
+      <c r="Y10" s="192"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="191"/>
+      <c r="AB10" s="192"/>
+      <c r="AC10" s="190"/>
+      <c r="AD10" s="191"/>
+      <c r="AE10" s="192"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3996,15 +4099,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="199"/>
-      <c r="Y11" s="200"/>
-      <c r="Z11" s="198"/>
-      <c r="AA11" s="199"/>
-      <c r="AB11" s="200"/>
-      <c r="AC11" s="198"/>
-      <c r="AD11" s="199"/>
-      <c r="AE11" s="200"/>
+      <c r="W11" s="190"/>
+      <c r="X11" s="191"/>
+      <c r="Y11" s="192"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="191"/>
+      <c r="AB11" s="192"/>
+      <c r="AC11" s="190"/>
+      <c r="AD11" s="191"/>
+      <c r="AE11" s="192"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4030,15 +4133,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="205"/>
-      <c r="X12" s="206"/>
-      <c r="Y12" s="207"/>
-      <c r="Z12" s="205"/>
-      <c r="AA12" s="206"/>
-      <c r="AB12" s="207"/>
-      <c r="AC12" s="201"/>
-      <c r="AD12" s="202"/>
-      <c r="AE12" s="203"/>
+      <c r="W12" s="197"/>
+      <c r="X12" s="198"/>
+      <c r="Y12" s="199"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="198"/>
+      <c r="AB12" s="199"/>
+      <c r="AC12" s="193"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="195"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4133,106 +4236,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="177" t="s">
+      <c r="B16" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="177"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="177"/>
-      <c r="U16" s="177"/>
-      <c r="V16" s="177"/>
-      <c r="W16" s="177"/>
-      <c r="X16" s="177"/>
-      <c r="Y16" s="177"/>
-      <c r="Z16" s="177"/>
-      <c r="AA16" s="177"/>
-      <c r="AB16" s="177"/>
-      <c r="AC16" s="177"/>
-      <c r="AD16" s="177"/>
-      <c r="AE16" s="177"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="200"/>
+      <c r="N16" s="200"/>
+      <c r="O16" s="200"/>
+      <c r="P16" s="200"/>
+      <c r="Q16" s="200"/>
+      <c r="R16" s="200"/>
+      <c r="S16" s="200"/>
+      <c r="T16" s="200"/>
+      <c r="U16" s="200"/>
+      <c r="V16" s="200"/>
+      <c r="W16" s="200"/>
+      <c r="X16" s="200"/>
+      <c r="Y16" s="200"/>
+      <c r="Z16" s="200"/>
+      <c r="AA16" s="200"/>
+      <c r="AB16" s="200"/>
+      <c r="AC16" s="200"/>
+      <c r="AD16" s="200"/>
+      <c r="AE16" s="200"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="177"/>
-      <c r="O17" s="177"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="177"/>
-      <c r="R17" s="177"/>
-      <c r="S17" s="177"/>
-      <c r="T17" s="177"/>
-      <c r="U17" s="177"/>
-      <c r="V17" s="177"/>
-      <c r="W17" s="177"/>
-      <c r="X17" s="177"/>
-      <c r="Y17" s="177"/>
-      <c r="Z17" s="177"/>
-      <c r="AA17" s="177"/>
-      <c r="AB17" s="177"/>
-      <c r="AC17" s="177"/>
-      <c r="AD17" s="177"/>
-      <c r="AE17" s="177"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="200"/>
+      <c r="O17" s="200"/>
+      <c r="P17" s="200"/>
+      <c r="Q17" s="200"/>
+      <c r="R17" s="200"/>
+      <c r="S17" s="200"/>
+      <c r="T17" s="200"/>
+      <c r="U17" s="200"/>
+      <c r="V17" s="200"/>
+      <c r="W17" s="200"/>
+      <c r="X17" s="200"/>
+      <c r="Y17" s="200"/>
+      <c r="Z17" s="200"/>
+      <c r="AA17" s="200"/>
+      <c r="AB17" s="200"/>
+      <c r="AC17" s="200"/>
+      <c r="AD17" s="200"/>
+      <c r="AE17" s="200"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="177"/>
-      <c r="O18" s="177"/>
-      <c r="P18" s="177"/>
-      <c r="Q18" s="177"/>
-      <c r="R18" s="177"/>
-      <c r="S18" s="177"/>
-      <c r="T18" s="177"/>
-      <c r="U18" s="177"/>
-      <c r="V18" s="177"/>
-      <c r="W18" s="177"/>
-      <c r="X18" s="177"/>
-      <c r="Y18" s="177"/>
-      <c r="Z18" s="177"/>
-      <c r="AA18" s="177"/>
-      <c r="AB18" s="177"/>
-      <c r="AC18" s="177"/>
-      <c r="AD18" s="177"/>
-      <c r="AE18" s="177"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="200"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="200"/>
+      <c r="O18" s="200"/>
+      <c r="P18" s="200"/>
+      <c r="Q18" s="200"/>
+      <c r="R18" s="200"/>
+      <c r="S18" s="200"/>
+      <c r="T18" s="200"/>
+      <c r="U18" s="200"/>
+      <c r="V18" s="200"/>
+      <c r="W18" s="200"/>
+      <c r="X18" s="200"/>
+      <c r="Y18" s="200"/>
+      <c r="Z18" s="200"/>
+      <c r="AA18" s="200"/>
+      <c r="AB18" s="200"/>
+      <c r="AC18" s="200"/>
+      <c r="AD18" s="200"/>
+      <c r="AE18" s="200"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4371,392 +4474,392 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="167" t="s">
+      <c r="B23" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="167" t="s">
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="167" t="s">
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="168"/>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="168"/>
-      <c r="O23" s="168"/>
-      <c r="P23" s="168"/>
-      <c r="Q23" s="168"/>
-      <c r="R23" s="168"/>
-      <c r="S23" s="168"/>
-      <c r="T23" s="168"/>
-      <c r="U23" s="168"/>
-      <c r="V23" s="168"/>
-      <c r="W23" s="168"/>
-      <c r="X23" s="168"/>
-      <c r="Y23" s="168"/>
-      <c r="Z23" s="168"/>
-      <c r="AA23" s="168"/>
-      <c r="AB23" s="169"/>
-      <c r="AC23" s="167" t="s">
+      <c r="K23" s="186"/>
+      <c r="L23" s="186"/>
+      <c r="M23" s="186"/>
+      <c r="N23" s="186"/>
+      <c r="O23" s="186"/>
+      <c r="P23" s="186"/>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="186"/>
+      <c r="S23" s="186"/>
+      <c r="T23" s="186"/>
+      <c r="U23" s="186"/>
+      <c r="V23" s="186"/>
+      <c r="W23" s="186"/>
+      <c r="X23" s="186"/>
+      <c r="Y23" s="186"/>
+      <c r="Z23" s="186"/>
+      <c r="AA23" s="186"/>
+      <c r="AB23" s="184"/>
+      <c r="AC23" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="168"/>
-      <c r="AE23" s="169"/>
+      <c r="AD23" s="186"/>
+      <c r="AE23" s="184"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="170">
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="201">
         <v>45054</v>
       </c>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="173" t="s">
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="204" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="174"/>
-      <c r="O24" s="174"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="174"/>
-      <c r="R24" s="174"/>
-      <c r="S24" s="174"/>
-      <c r="T24" s="174"/>
-      <c r="U24" s="174"/>
-      <c r="V24" s="174"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="174"/>
-      <c r="Y24" s="174"/>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="174"/>
-      <c r="AB24" s="175"/>
-      <c r="AC24" s="176" t="s">
+      <c r="K24" s="205"/>
+      <c r="L24" s="205"/>
+      <c r="M24" s="205"/>
+      <c r="N24" s="205"/>
+      <c r="O24" s="205"/>
+      <c r="P24" s="205"/>
+      <c r="Q24" s="205"/>
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="205"/>
+      <c r="U24" s="205"/>
+      <c r="V24" s="205"/>
+      <c r="W24" s="205"/>
+      <c r="X24" s="205"/>
+      <c r="Y24" s="205"/>
+      <c r="Z24" s="205"/>
+      <c r="AA24" s="205"/>
+      <c r="AB24" s="206"/>
+      <c r="AC24" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="AD24" s="168"/>
-      <c r="AE24" s="169"/>
+      <c r="AD24" s="186"/>
+      <c r="AE24" s="184"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="174"/>
-      <c r="M25" s="174"/>
-      <c r="N25" s="174"/>
-      <c r="O25" s="174"/>
-      <c r="P25" s="174"/>
-      <c r="Q25" s="174"/>
-      <c r="R25" s="174"/>
-      <c r="S25" s="174"/>
-      <c r="T25" s="174"/>
-      <c r="U25" s="174"/>
-      <c r="V25" s="174"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="174"/>
-      <c r="Y25" s="174"/>
-      <c r="Z25" s="174"/>
-      <c r="AA25" s="174"/>
-      <c r="AB25" s="175"/>
-      <c r="AC25" s="167"/>
-      <c r="AD25" s="168"/>
-      <c r="AE25" s="169"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="201"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="205"/>
+      <c r="M25" s="205"/>
+      <c r="N25" s="205"/>
+      <c r="O25" s="205"/>
+      <c r="P25" s="205"/>
+      <c r="Q25" s="205"/>
+      <c r="R25" s="205"/>
+      <c r="S25" s="205"/>
+      <c r="T25" s="205"/>
+      <c r="U25" s="205"/>
+      <c r="V25" s="205"/>
+      <c r="W25" s="205"/>
+      <c r="X25" s="205"/>
+      <c r="Y25" s="205"/>
+      <c r="Z25" s="205"/>
+      <c r="AA25" s="205"/>
+      <c r="AB25" s="206"/>
+      <c r="AC25" s="183"/>
+      <c r="AD25" s="186"/>
+      <c r="AE25" s="184"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="167"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
-      <c r="M26" s="174"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="174"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="174"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="175"/>
-      <c r="AC26" s="167"/>
-      <c r="AD26" s="168"/>
-      <c r="AE26" s="169"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="204"/>
+      <c r="K26" s="205"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="205"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="205"/>
+      <c r="Q26" s="205"/>
+      <c r="R26" s="205"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="205"/>
+      <c r="U26" s="205"/>
+      <c r="V26" s="205"/>
+      <c r="W26" s="205"/>
+      <c r="X26" s="205"/>
+      <c r="Y26" s="205"/>
+      <c r="Z26" s="205"/>
+      <c r="AA26" s="205"/>
+      <c r="AB26" s="206"/>
+      <c r="AC26" s="183"/>
+      <c r="AD26" s="186"/>
+      <c r="AE26" s="184"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="174"/>
-      <c r="L27" s="174"/>
-      <c r="M27" s="174"/>
-      <c r="N27" s="174"/>
-      <c r="O27" s="174"/>
-      <c r="P27" s="174"/>
-      <c r="Q27" s="174"/>
-      <c r="R27" s="174"/>
-      <c r="S27" s="174"/>
-      <c r="T27" s="174"/>
-      <c r="U27" s="174"/>
-      <c r="V27" s="174"/>
-      <c r="W27" s="174"/>
-      <c r="X27" s="174"/>
-      <c r="Y27" s="174"/>
-      <c r="Z27" s="174"/>
-      <c r="AA27" s="174"/>
-      <c r="AB27" s="175"/>
-      <c r="AC27" s="167"/>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="169"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="201"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="204"/>
+      <c r="K27" s="205"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="205"/>
+      <c r="N27" s="205"/>
+      <c r="O27" s="205"/>
+      <c r="P27" s="205"/>
+      <c r="Q27" s="205"/>
+      <c r="R27" s="205"/>
+      <c r="S27" s="205"/>
+      <c r="T27" s="205"/>
+      <c r="U27" s="205"/>
+      <c r="V27" s="205"/>
+      <c r="W27" s="205"/>
+      <c r="X27" s="205"/>
+      <c r="Y27" s="205"/>
+      <c r="Z27" s="205"/>
+      <c r="AA27" s="205"/>
+      <c r="AB27" s="206"/>
+      <c r="AC27" s="183"/>
+      <c r="AD27" s="186"/>
+      <c r="AE27" s="184"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="174"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="174"/>
-      <c r="O28" s="174"/>
-      <c r="P28" s="174"/>
-      <c r="Q28" s="174"/>
-      <c r="R28" s="174"/>
-      <c r="S28" s="174"/>
-      <c r="T28" s="174"/>
-      <c r="U28" s="174"/>
-      <c r="V28" s="174"/>
-      <c r="W28" s="174"/>
-      <c r="X28" s="174"/>
-      <c r="Y28" s="174"/>
-      <c r="Z28" s="174"/>
-      <c r="AA28" s="174"/>
-      <c r="AB28" s="175"/>
-      <c r="AC28" s="167"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="169"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="205"/>
+      <c r="L28" s="205"/>
+      <c r="M28" s="205"/>
+      <c r="N28" s="205"/>
+      <c r="O28" s="205"/>
+      <c r="P28" s="205"/>
+      <c r="Q28" s="205"/>
+      <c r="R28" s="205"/>
+      <c r="S28" s="205"/>
+      <c r="T28" s="205"/>
+      <c r="U28" s="205"/>
+      <c r="V28" s="205"/>
+      <c r="W28" s="205"/>
+      <c r="X28" s="205"/>
+      <c r="Y28" s="205"/>
+      <c r="Z28" s="205"/>
+      <c r="AA28" s="205"/>
+      <c r="AB28" s="206"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="186"/>
+      <c r="AE28" s="184"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="167"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="174"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="174"/>
-      <c r="O29" s="174"/>
-      <c r="P29" s="174"/>
-      <c r="Q29" s="174"/>
-      <c r="R29" s="174"/>
-      <c r="S29" s="174"/>
-      <c r="T29" s="174"/>
-      <c r="U29" s="174"/>
-      <c r="V29" s="174"/>
-      <c r="W29" s="174"/>
-      <c r="X29" s="174"/>
-      <c r="Y29" s="174"/>
-      <c r="Z29" s="174"/>
-      <c r="AA29" s="174"/>
-      <c r="AB29" s="175"/>
-      <c r="AC29" s="167"/>
-      <c r="AD29" s="168"/>
-      <c r="AE29" s="169"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="205"/>
+      <c r="L29" s="205"/>
+      <c r="M29" s="205"/>
+      <c r="N29" s="205"/>
+      <c r="O29" s="205"/>
+      <c r="P29" s="205"/>
+      <c r="Q29" s="205"/>
+      <c r="R29" s="205"/>
+      <c r="S29" s="205"/>
+      <c r="T29" s="205"/>
+      <c r="U29" s="205"/>
+      <c r="V29" s="205"/>
+      <c r="W29" s="205"/>
+      <c r="X29" s="205"/>
+      <c r="Y29" s="205"/>
+      <c r="Z29" s="205"/>
+      <c r="AA29" s="205"/>
+      <c r="AB29" s="206"/>
+      <c r="AC29" s="183"/>
+      <c r="AD29" s="186"/>
+      <c r="AE29" s="184"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="167"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="174"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="174"/>
-      <c r="O30" s="174"/>
-      <c r="P30" s="174"/>
-      <c r="Q30" s="174"/>
-      <c r="R30" s="174"/>
-      <c r="S30" s="174"/>
-      <c r="T30" s="174"/>
-      <c r="U30" s="174"/>
-      <c r="V30" s="174"/>
-      <c r="W30" s="174"/>
-      <c r="X30" s="174"/>
-      <c r="Y30" s="174"/>
-      <c r="Z30" s="174"/>
-      <c r="AA30" s="174"/>
-      <c r="AB30" s="175"/>
-      <c r="AC30" s="167"/>
-      <c r="AD30" s="168"/>
-      <c r="AE30" s="169"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="204"/>
+      <c r="K30" s="205"/>
+      <c r="L30" s="205"/>
+      <c r="M30" s="205"/>
+      <c r="N30" s="205"/>
+      <c r="O30" s="205"/>
+      <c r="P30" s="205"/>
+      <c r="Q30" s="205"/>
+      <c r="R30" s="205"/>
+      <c r="S30" s="205"/>
+      <c r="T30" s="205"/>
+      <c r="U30" s="205"/>
+      <c r="V30" s="205"/>
+      <c r="W30" s="205"/>
+      <c r="X30" s="205"/>
+      <c r="Y30" s="205"/>
+      <c r="Z30" s="205"/>
+      <c r="AA30" s="205"/>
+      <c r="AB30" s="206"/>
+      <c r="AC30" s="183"/>
+      <c r="AD30" s="186"/>
+      <c r="AE30" s="184"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="167"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="173"/>
-      <c r="K31" s="174"/>
-      <c r="L31" s="174"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="174"/>
-      <c r="O31" s="174"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="174"/>
-      <c r="R31" s="174"/>
-      <c r="S31" s="174"/>
-      <c r="T31" s="174"/>
-      <c r="U31" s="174"/>
-      <c r="V31" s="174"/>
-      <c r="W31" s="174"/>
-      <c r="X31" s="174"/>
-      <c r="Y31" s="174"/>
-      <c r="Z31" s="174"/>
-      <c r="AA31" s="174"/>
-      <c r="AB31" s="175"/>
-      <c r="AC31" s="167"/>
-      <c r="AD31" s="168"/>
-      <c r="AE31" s="169"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="201"/>
+      <c r="G31" s="202"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="205"/>
+      <c r="L31" s="205"/>
+      <c r="M31" s="205"/>
+      <c r="N31" s="205"/>
+      <c r="O31" s="205"/>
+      <c r="P31" s="205"/>
+      <c r="Q31" s="205"/>
+      <c r="R31" s="205"/>
+      <c r="S31" s="205"/>
+      <c r="T31" s="205"/>
+      <c r="U31" s="205"/>
+      <c r="V31" s="205"/>
+      <c r="W31" s="205"/>
+      <c r="X31" s="205"/>
+      <c r="Y31" s="205"/>
+      <c r="Z31" s="205"/>
+      <c r="AA31" s="205"/>
+      <c r="AB31" s="206"/>
+      <c r="AC31" s="183"/>
+      <c r="AD31" s="186"/>
+      <c r="AE31" s="184"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="174"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="174"/>
-      <c r="O32" s="174"/>
-      <c r="P32" s="174"/>
-      <c r="Q32" s="174"/>
-      <c r="R32" s="174"/>
-      <c r="S32" s="174"/>
-      <c r="T32" s="174"/>
-      <c r="U32" s="174"/>
-      <c r="V32" s="174"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="174"/>
-      <c r="Y32" s="174"/>
-      <c r="Z32" s="174"/>
-      <c r="AA32" s="174"/>
-      <c r="AB32" s="175"/>
-      <c r="AC32" s="167"/>
-      <c r="AD32" s="168"/>
-      <c r="AE32" s="169"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="202"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="204"/>
+      <c r="K32" s="205"/>
+      <c r="L32" s="205"/>
+      <c r="M32" s="205"/>
+      <c r="N32" s="205"/>
+      <c r="O32" s="205"/>
+      <c r="P32" s="205"/>
+      <c r="Q32" s="205"/>
+      <c r="R32" s="205"/>
+      <c r="S32" s="205"/>
+      <c r="T32" s="205"/>
+      <c r="U32" s="205"/>
+      <c r="V32" s="205"/>
+      <c r="W32" s="205"/>
+      <c r="X32" s="205"/>
+      <c r="Y32" s="205"/>
+      <c r="Z32" s="205"/>
+      <c r="AA32" s="205"/>
+      <c r="AB32" s="206"/>
+      <c r="AC32" s="183"/>
+      <c r="AD32" s="186"/>
+      <c r="AE32" s="184"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="173"/>
-      <c r="K33" s="174"/>
-      <c r="L33" s="174"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="174"/>
-      <c r="O33" s="174"/>
-      <c r="P33" s="174"/>
-      <c r="Q33" s="174"/>
-      <c r="R33" s="174"/>
-      <c r="S33" s="174"/>
-      <c r="T33" s="174"/>
-      <c r="U33" s="174"/>
-      <c r="V33" s="174"/>
-      <c r="W33" s="174"/>
-      <c r="X33" s="174"/>
-      <c r="Y33" s="174"/>
-      <c r="Z33" s="174"/>
-      <c r="AA33" s="174"/>
-      <c r="AB33" s="175"/>
-      <c r="AC33" s="167"/>
-      <c r="AD33" s="168"/>
-      <c r="AE33" s="169"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="205"/>
+      <c r="L33" s="205"/>
+      <c r="M33" s="205"/>
+      <c r="N33" s="205"/>
+      <c r="O33" s="205"/>
+      <c r="P33" s="205"/>
+      <c r="Q33" s="205"/>
+      <c r="R33" s="205"/>
+      <c r="S33" s="205"/>
+      <c r="T33" s="205"/>
+      <c r="U33" s="205"/>
+      <c r="V33" s="205"/>
+      <c r="W33" s="205"/>
+      <c r="X33" s="205"/>
+      <c r="Y33" s="205"/>
+      <c r="Z33" s="205"/>
+      <c r="AA33" s="205"/>
+      <c r="AB33" s="206"/>
+      <c r="AC33" s="183"/>
+      <c r="AD33" s="186"/>
+      <c r="AE33" s="184"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4794,6 +4897,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -4805,51 +4953,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -4873,8 +4976,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -4899,10 +5002,10 @@
       <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="218" t="s">
+      <c r="A2" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="219"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
@@ -4915,10 +5018,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="219"/>
+      <c r="B3" s="209"/>
       <c r="C3" s="30" t="s">
         <v>26</v>
       </c>
@@ -4931,10 +5034,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1">
-      <c r="A4" s="218" t="s">
+      <c r="A4" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="219"/>
+      <c r="B4" s="209"/>
       <c r="C4" s="30" t="s">
         <v>29</v>
       </c>
@@ -4947,10 +5050,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="A5" s="218" t="s">
+      <c r="A5" s="208" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="219"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="30" t="s">
         <v>32</v>
       </c>
@@ -4961,10 +5064,10 @@
       <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="219"/>
+      <c r="B6" s="209"/>
       <c r="C6" s="30" t="s">
         <v>35</v>
       </c>
@@ -5005,10 +5108,10 @@
       <c r="D9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="212" t="s">
+      <c r="E9" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="213"/>
+      <c r="F9" s="215"/>
     </row>
     <row r="10" spans="1:8" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -5023,10 +5126,10 @@
       <c r="D10" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="214" t="s">
+      <c r="E10" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="215"/>
+      <c r="F10" s="217"/>
       <c r="G10" s="159"/>
       <c r="H10" s="159"/>
     </row>
@@ -5043,10 +5146,10 @@
       <c r="D11" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="216" t="s">
+      <c r="E11" s="218" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="217"/>
+      <c r="F11" s="219"/>
     </row>
     <row r="12" spans="1:8" ht="33.75" customHeight="1">
       <c r="A12" s="59">
@@ -5061,10 +5164,10 @@
       <c r="D12" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="208" t="s">
+      <c r="E12" s="210" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="209"/>
+      <c r="F12" s="211"/>
     </row>
     <row r="13" spans="1:8" ht="33.75" customHeight="1">
       <c r="A13" s="59">
@@ -5079,10 +5182,10 @@
       <c r="D13" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="208" t="s">
+      <c r="E13" s="210" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="209"/>
+      <c r="F13" s="211"/>
     </row>
     <row r="14" spans="1:8" ht="33.75" customHeight="1">
       <c r="A14" s="59">
@@ -5097,33 +5200,44 @@
       <c r="D14" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="208" t="s">
+      <c r="E14" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="209"/>
+      <c r="F14" s="211"/>
     </row>
     <row r="15" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="211"/>
+      <c r="A15" s="8">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="212" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="213"/>
     </row>
     <row r="16" spans="1:8" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="211"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="213"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="211"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="213"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -5365,11 +5479,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -5379,6 +5488,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5498,42 +5612,42 @@
         <v>63</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="222" t="s">
+      <c r="C6" s="248" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="224"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="250"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="222" t="s">
+      <c r="C7" s="248" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="224"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="250"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="222" t="s">
+      <c r="C8" s="248" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="224"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="250"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -5554,10 +5668,10 @@
       <c r="B10" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="225" t="s">
+      <c r="C10" s="234" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="226"/>
+      <c r="D10" s="251"/>
       <c r="E10" s="48" t="s">
         <v>71</v>
       </c>
@@ -5578,10 +5692,10 @@
       <c r="B11" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="227" t="s">
+      <c r="C11" s="252" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="228"/>
+      <c r="D11" s="253"/>
       <c r="E11" s="63" t="s">
         <v>172</v>
       </c>
@@ -5600,10 +5714,10 @@
       <c r="B12" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="220" t="s">
+      <c r="C12" s="241" t="s">
         <v>174</v>
       </c>
-      <c r="D12" s="221"/>
+      <c r="D12" s="242"/>
       <c r="E12" s="68" t="s">
         <v>175</v>
       </c>
@@ -5616,8 +5730,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="66"/>
       <c r="B13" s="67"/>
-      <c r="C13" s="220"/>
-      <c r="D13" s="221"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="242"/>
       <c r="E13" s="68"/>
       <c r="F13" s="68"/>
       <c r="G13" s="69"/>
@@ -5626,8 +5740,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="220"/>
-      <c r="D14" s="221"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="242"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -5636,8 +5750,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="220"/>
-      <c r="D15" s="221"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="242"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -5646,8 +5760,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="220"/>
-      <c r="D16" s="221"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="242"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -5656,8 +5770,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="220"/>
-      <c r="D17" s="221"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="242"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -5666,8 +5780,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="220"/>
-      <c r="D18" s="221"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="242"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -5676,8 +5790,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="220"/>
-      <c r="D19" s="221"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="242"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5686,8 +5800,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="221"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="242"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5696,8 +5810,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="221"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5706,8 +5820,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="220"/>
-      <c r="D22" s="221"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="242"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5716,8 +5830,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="220"/>
-      <c r="D23" s="221"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="242"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5726,8 +5840,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="221"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="242"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5736,8 +5850,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="220"/>
-      <c r="D25" s="221"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="242"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5746,8 +5860,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="221"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="242"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5756,8 +5870,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="220"/>
-      <c r="D27" s="221"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="242"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5766,8 +5880,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="221"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="242"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5776,8 +5890,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="220"/>
-      <c r="D29" s="221"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="242"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5786,8 +5900,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="234"/>
-      <c r="D30" s="235"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5819,10 +5933,10 @@
       <c r="A33" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="236" t="s">
+      <c r="B33" s="231" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="237"/>
+      <c r="C33" s="233"/>
       <c r="D33" s="54" t="s">
         <v>80</v>
       </c>
@@ -5837,51 +5951,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="238"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="240"/>
-      <c r="E34" s="241"/>
-      <c r="F34" s="242"/>
+      <c r="B34" s="243"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="245"/>
+      <c r="E34" s="246"/>
+      <c r="F34" s="247"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="231"/>
-      <c r="E35" s="232"/>
-      <c r="F35" s="233"/>
+      <c r="B35" s="236"/>
+      <c r="C35" s="237"/>
+      <c r="D35" s="220"/>
+      <c r="E35" s="221"/>
+      <c r="F35" s="222"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="229"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="231"/>
-      <c r="E36" s="232"/>
-      <c r="F36" s="233"/>
+      <c r="B36" s="236"/>
+      <c r="C36" s="237"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="222"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="229"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="231"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="233"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="237"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="221"/>
+      <c r="F37" s="222"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="243"/>
-      <c r="C38" s="244"/>
-      <c r="D38" s="234"/>
-      <c r="E38" s="245"/>
-      <c r="F38" s="235"/>
+      <c r="B38" s="238"/>
+      <c r="C38" s="239"/>
+      <c r="D38" s="223"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -5914,15 +6028,15 @@
       <c r="B41" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="236" t="s">
+      <c r="C41" s="231" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="246"/>
-      <c r="E41" s="237"/>
-      <c r="F41" s="236" t="s">
+      <c r="D41" s="232"/>
+      <c r="E41" s="233"/>
+      <c r="F41" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="247"/>
+      <c r="G41" s="240"/>
       <c r="H41" s="58" t="s">
         <v>85</v>
       </c>
@@ -5934,15 +6048,15 @@
       <c r="B42" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="248" t="s">
+      <c r="C42" s="228" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="249"/>
-      <c r="E42" s="250"/>
-      <c r="F42" s="248" t="s">
+      <c r="D42" s="229"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="250"/>
+      <c r="G42" s="230"/>
       <c r="H42" s="96" t="s">
         <v>64</v>
       </c>
@@ -5950,41 +6064,41 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="231"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="233"/>
-      <c r="F43" s="231"/>
-      <c r="G43" s="233"/>
+      <c r="C43" s="220"/>
+      <c r="D43" s="221"/>
+      <c r="E43" s="222"/>
+      <c r="F43" s="220"/>
+      <c r="G43" s="222"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="231"/>
-      <c r="D44" s="232"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="233"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="221"/>
+      <c r="E44" s="222"/>
+      <c r="F44" s="220"/>
+      <c r="G44" s="222"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="231"/>
-      <c r="D45" s="232"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="231"/>
-      <c r="G45" s="233"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="222"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="222"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="234"/>
-      <c r="D46" s="245"/>
-      <c r="E46" s="235"/>
-      <c r="F46" s="251"/>
-      <c r="G46" s="252"/>
+      <c r="C46" s="223"/>
+      <c r="D46" s="224"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="227"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6016,15 +6130,15 @@
       <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="236" t="s">
+      <c r="C49" s="231" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="246"/>
-      <c r="E49" s="237"/>
-      <c r="F49" s="225" t="s">
+      <c r="D49" s="232"/>
+      <c r="E49" s="233"/>
+      <c r="F49" s="234" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="253"/>
+      <c r="G49" s="235"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -6036,15 +6150,15 @@
       <c r="B50" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="248" t="s">
+      <c r="C50" s="228" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="249"/>
-      <c r="E50" s="250"/>
-      <c r="F50" s="248" t="s">
+      <c r="D50" s="229"/>
+      <c r="E50" s="230"/>
+      <c r="F50" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="G50" s="250"/>
+      <c r="G50" s="230"/>
       <c r="H50" s="96" t="s">
         <v>64</v>
       </c>
@@ -6052,41 +6166,1623 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="231"/>
-      <c r="D51" s="232"/>
-      <c r="E51" s="233"/>
-      <c r="F51" s="231"/>
-      <c r="G51" s="233"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="221"/>
+      <c r="E51" s="222"/>
+      <c r="F51" s="220"/>
+      <c r="G51" s="222"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="231"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="233"/>
-      <c r="F52" s="231"/>
-      <c r="G52" s="233"/>
+      <c r="C52" s="220"/>
+      <c r="D52" s="221"/>
+      <c r="E52" s="222"/>
+      <c r="F52" s="220"/>
+      <c r="G52" s="222"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="231"/>
-      <c r="D53" s="232"/>
-      <c r="E53" s="233"/>
-      <c r="F53" s="231"/>
-      <c r="G53" s="233"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="221"/>
+      <c r="E53" s="222"/>
+      <c r="F53" s="220"/>
+      <c r="G53" s="222"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="245"/>
-      <c r="E54" s="235"/>
-      <c r="F54" s="251"/>
-      <c r="G54" s="252"/>
+      <c r="C54" s="223"/>
+      <c r="D54" s="224"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="226"/>
+      <c r="G54" s="227"/>
+      <c r="H54" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56500D9C-6264-432F-9A72-309A3EF678F2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4">
+      <c r="A1" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="136"/>
+      <c r="E2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="137">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="136"/>
+      <c r="E3" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="136"/>
+      <c r="G3" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="138"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="134" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="135"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="138" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="136"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="139"/>
+      <c r="C6" s="265" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266"/>
+      <c r="G6" s="266"/>
+      <c r="H6" s="267"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="134" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="139"/>
+      <c r="C7" s="265" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="266"/>
+      <c r="E7" s="266"/>
+      <c r="F7" s="266"/>
+      <c r="G7" s="266"/>
+      <c r="H7" s="267"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="134" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="139"/>
+      <c r="C8" s="265" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="266"/>
+      <c r="H8" s="267"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="141" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="260" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="268"/>
+      <c r="E10" s="142" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="143" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="61">
+        <v>1</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="252" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="253"/>
+      <c r="E11" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="61">
+        <v>2</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="165" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="166"/>
+      <c r="E12" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="66">
+        <v>3</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="241" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="242"/>
+      <c r="E13" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="145"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="146"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="146"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="146"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="146"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="146"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="146"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="146"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="242"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="146"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="146"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="146"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="242"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="146"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="146"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="146"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="146"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="242"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="146"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="146"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="225"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="147"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="140"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="257" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="259"/>
+      <c r="D34" s="150" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="152"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="153" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="154" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="61"/>
+      <c r="B35" s="243"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="245"/>
+      <c r="E35" s="246"/>
+      <c r="F35" s="247"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="144"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="236"/>
+      <c r="C36" s="237"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="222"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="145"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="237"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="221"/>
+      <c r="F37" s="222"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="145"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A38" s="66"/>
+      <c r="B38" s="236"/>
+      <c r="C38" s="237"/>
+      <c r="D38" s="220"/>
+      <c r="E38" s="221"/>
+      <c r="F38" s="222"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="145"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="76"/>
+      <c r="B39" s="238"/>
+      <c r="C39" s="239"/>
+      <c r="D39" s="223"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="225"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="147"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="140"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="149" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="257" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="258"/>
+      <c r="E42" s="259"/>
+      <c r="F42" s="257" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="264"/>
+      <c r="H42" s="154" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="94">
+        <v>1</v>
+      </c>
+      <c r="B43" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="228" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="229"/>
+      <c r="E43" s="230"/>
+      <c r="F43" s="228" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="230"/>
+      <c r="H43" s="133" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="84">
+        <v>2</v>
+      </c>
+      <c r="B44" s="132" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="254" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="255"/>
+      <c r="E44" s="256"/>
+      <c r="F44" s="262" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="263"/>
+      <c r="H44" s="145" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="222"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="222"/>
+      <c r="H45" s="86"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A46" s="84"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="220"/>
+      <c r="D46" s="221"/>
+      <c r="E46" s="222"/>
+      <c r="F46" s="220"/>
+      <c r="G46" s="222"/>
+      <c r="H46" s="86"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="87"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="223"/>
+      <c r="D47" s="224"/>
+      <c r="E47" s="225"/>
+      <c r="F47" s="226"/>
+      <c r="G47" s="227"/>
+      <c r="H47" s="89"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="140"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="148"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="141" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="257" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="258"/>
+      <c r="E50" s="259"/>
+      <c r="F50" s="260" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="261"/>
+      <c r="H50" s="143" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="155"/>
+      <c r="B51" s="132"/>
+      <c r="C51" s="254"/>
+      <c r="D51" s="255"/>
+      <c r="E51" s="256"/>
+      <c r="F51" s="254"/>
+      <c r="G51" s="256"/>
+      <c r="H51" s="156"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="84"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="220"/>
+      <c r="D52" s="221"/>
+      <c r="E52" s="222"/>
+      <c r="F52" s="220"/>
+      <c r="G52" s="222"/>
+      <c r="H52" s="86"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="221"/>
+      <c r="E53" s="222"/>
+      <c r="F53" s="220"/>
+      <c r="G53" s="222"/>
+      <c r="H53" s="86"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A54" s="84"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="220"/>
+      <c r="D54" s="221"/>
+      <c r="E54" s="222"/>
+      <c r="F54" s="220"/>
+      <c r="G54" s="222"/>
+      <c r="H54" s="86"/>
+    </row>
+    <row r="55" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A55" s="87"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="223"/>
+      <c r="D55" s="224"/>
+      <c r="E55" s="225"/>
+      <c r="F55" s="226"/>
+      <c r="G55" s="227"/>
+      <c r="H55" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DF23A8-B9C9-4F18-80A4-59C2D48300D4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4">
+      <c r="A1" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="92">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="93"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="248" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="250"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="248" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="250"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="248" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="250"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="234" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="251"/>
+      <c r="E10" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="61">
+        <v>1</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="252" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="253"/>
+      <c r="E11" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="66">
+        <v>2</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="241" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="242"/>
+      <c r="E12" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="66">
+        <v>3</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="241" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="242"/>
+      <c r="E13" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="71">
+        <v>4</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="241" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="242"/>
+      <c r="E14" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="71">
+        <v>5</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="241" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="242"/>
+      <c r="E15" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="71">
+        <v>6</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="241" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="242"/>
+      <c r="E16" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="242"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="242"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="242"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="225"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="80"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="231" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="233"/>
+      <c r="D33" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="55"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="61"/>
+      <c r="B34" s="243"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="245"/>
+      <c r="E34" s="246"/>
+      <c r="F34" s="247"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="66"/>
+      <c r="B35" s="236"/>
+      <c r="C35" s="237"/>
+      <c r="D35" s="220"/>
+      <c r="E35" s="221"/>
+      <c r="F35" s="222"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="70"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="236"/>
+      <c r="C36" s="237"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="222"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="237"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="221"/>
+      <c r="F37" s="222"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="70"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A38" s="76"/>
+      <c r="B38" s="238"/>
+      <c r="C38" s="239"/>
+      <c r="D38" s="223"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="225"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="80"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="231" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="232"/>
+      <c r="E41" s="233"/>
+      <c r="F41" s="231" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="240"/>
+      <c r="H41" s="58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="81"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="245"/>
+      <c r="D42" s="246"/>
+      <c r="E42" s="247"/>
+      <c r="F42" s="245"/>
+      <c r="G42" s="247"/>
+      <c r="H42" s="83"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="84"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="220"/>
+      <c r="D43" s="221"/>
+      <c r="E43" s="222"/>
+      <c r="F43" s="220"/>
+      <c r="G43" s="222"/>
+      <c r="H43" s="86"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="84"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="221"/>
+      <c r="E44" s="222"/>
+      <c r="F44" s="220"/>
+      <c r="G44" s="222"/>
+      <c r="H44" s="86"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="222"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="222"/>
+      <c r="H45" s="86"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A46" s="87"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="223"/>
+      <c r="D46" s="224"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="227"/>
+      <c r="H46" s="89"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="231" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="232"/>
+      <c r="E49" s="233"/>
+      <c r="F49" s="234" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="235"/>
+      <c r="H49" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="94">
+        <v>1</v>
+      </c>
+      <c r="B50" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="228" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="229"/>
+      <c r="E50" s="230"/>
+      <c r="F50" s="228" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="230"/>
+      <c r="H50" s="96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="84"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="221"/>
+      <c r="E51" s="222"/>
+      <c r="F51" s="220"/>
+      <c r="G51" s="222"/>
+      <c r="H51" s="86"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="84"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="220"/>
+      <c r="D52" s="221"/>
+      <c r="E52" s="222"/>
+      <c r="F52" s="220"/>
+      <c r="G52" s="222"/>
+      <c r="H52" s="86"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="84"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="221"/>
+      <c r="E53" s="222"/>
+      <c r="F53" s="220"/>
+      <c r="G53" s="222"/>
+      <c r="H53" s="86"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A54" s="87"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="223"/>
+      <c r="D54" s="224"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="226"/>
+      <c r="G54" s="227"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -6157,804 +7853,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56500D9C-6264-432F-9A72-309A3EF678F2}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B70C739-1BC6-4CF0-8F23-5A0892C864C6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="134" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="135" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="136"/>
-      <c r="E2" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="136" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="137">
-        <v>45055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="138"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="134" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="135" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="138" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="136"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="134" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="254" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="255"/>
-      <c r="E6" s="255"/>
-      <c r="F6" s="255"/>
-      <c r="G6" s="255"/>
-      <c r="H6" s="256"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="134" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="254" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="255"/>
-      <c r="E7" s="255"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="255"/>
-      <c r="H7" s="256"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="134" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="139"/>
-      <c r="C8" s="254" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="255"/>
-      <c r="E8" s="255"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="256"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A9" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="142" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="257" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="258"/>
-      <c r="E10" s="142" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="142" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="143" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="61">
-        <v>1</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="227" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="228"/>
-      <c r="E11" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="144" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="61">
-        <v>2</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="165" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="144" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="66">
-        <v>3</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="220" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="221"/>
-      <c r="E13" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="70"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="220"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="145"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="220"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="146"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="220"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="146"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="220"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="146"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="220"/>
-      <c r="D18" s="221"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="146"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="220"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="146"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="146"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="146"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="220"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="146"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="220"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="146"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="146"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="220"/>
-      <c r="D25" s="221"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="146"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="221"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="146"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="220"/>
-      <c r="D27" s="221"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="146"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="221"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="146"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="220"/>
-      <c r="D29" s="221"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="146"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="220"/>
-      <c r="D30" s="221"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="146"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="76"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="234"/>
-      <c r="D31" s="235"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="147"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A33" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="140"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="259" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="260"/>
-      <c r="D34" s="150" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="152"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="153" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="154" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="61"/>
-      <c r="B35" s="238"/>
-      <c r="C35" s="239"/>
-      <c r="D35" s="240"/>
-      <c r="E35" s="241"/>
-      <c r="F35" s="242"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="144"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="229"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="231"/>
-      <c r="E36" s="232"/>
-      <c r="F36" s="233"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="145"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="66"/>
-      <c r="B37" s="229"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="231"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="233"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="145"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A38" s="66"/>
-      <c r="B38" s="229"/>
-      <c r="C38" s="230"/>
-      <c r="D38" s="231"/>
-      <c r="E38" s="232"/>
-      <c r="F38" s="233"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="145"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="76"/>
-      <c r="B39" s="243"/>
-      <c r="C39" s="244"/>
-      <c r="D39" s="234"/>
-      <c r="E39" s="245"/>
-      <c r="F39" s="235"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="147"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A41" s="140" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="140"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="259" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="261"/>
-      <c r="E42" s="260"/>
-      <c r="F42" s="259" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="262"/>
-      <c r="H42" s="154" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="94">
-        <v>1</v>
-      </c>
-      <c r="B43" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="248" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="249"/>
-      <c r="E43" s="250"/>
-      <c r="F43" s="248" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="250"/>
-      <c r="H43" s="133" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="84">
-        <v>2</v>
-      </c>
-      <c r="B44" s="132" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="263" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="264"/>
-      <c r="E44" s="265"/>
-      <c r="F44" s="266" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="267"/>
-      <c r="H44" s="145" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="84"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="231"/>
-      <c r="D45" s="232"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="231"/>
-      <c r="G45" s="233"/>
-      <c r="H45" s="86"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A46" s="84"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="231"/>
-      <c r="D46" s="232"/>
-      <c r="E46" s="233"/>
-      <c r="F46" s="231"/>
-      <c r="G46" s="233"/>
-      <c r="H46" s="86"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="87"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="234"/>
-      <c r="D47" s="245"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="251"/>
-      <c r="G47" s="252"/>
-      <c r="H47" s="89"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A49" s="140" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="140"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="148"/>
-      <c r="G49" s="148"/>
-      <c r="H49" s="148"/>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="141" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="259" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="261"/>
-      <c r="E50" s="260"/>
-      <c r="F50" s="257" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" s="268"/>
-      <c r="H50" s="143" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="155"/>
-      <c r="B51" s="132"/>
-      <c r="C51" s="263"/>
-      <c r="D51" s="264"/>
-      <c r="E51" s="265"/>
-      <c r="F51" s="263"/>
-      <c r="G51" s="265"/>
-      <c r="H51" s="156"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="84"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="231"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="233"/>
-      <c r="F52" s="231"/>
-      <c r="G52" s="233"/>
-      <c r="H52" s="86"/>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A53" s="84"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="231"/>
-      <c r="D53" s="232"/>
-      <c r="E53" s="233"/>
-      <c r="F53" s="231"/>
-      <c r="G53" s="233"/>
-      <c r="H53" s="86"/>
-    </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A54" s="84"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="231"/>
-      <c r="D54" s="232"/>
-      <c r="E54" s="233"/>
-      <c r="F54" s="231"/>
-      <c r="G54" s="233"/>
-      <c r="H54" s="86"/>
-    </row>
-    <row r="55" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A55" s="87"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="234"/>
-      <c r="D55" s="245"/>
-      <c r="E55" s="235"/>
-      <c r="F55" s="251"/>
-      <c r="G55" s="252"/>
-      <c r="H55" s="89"/>
-    </row>
-  </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DF23A8-B9C9-4F18-80A4-59C2D48300D4}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -7054,44 +7961,44 @@
         <v>63</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="222" t="s">
+      <c r="C6" s="248" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="224"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="250"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="222" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="224"/>
+      <c r="C7" s="248" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="250"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="222" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="224"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="C8" s="248" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="250"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
         <v>67</v>
       </c>
@@ -7110,10 +8017,10 @@
       <c r="B10" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="225" t="s">
+      <c r="C10" s="234" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="226"/>
+      <c r="D10" s="251"/>
       <c r="E10" s="48" t="s">
         <v>71</v>
       </c>
@@ -7132,12 +8039,12 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="227" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="228"/>
+        <v>193</v>
+      </c>
+      <c r="C11" s="252" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="253"/>
       <c r="E11" s="63" t="s">
         <v>94</v>
       </c>
@@ -7154,34 +8061,36 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="220" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="221"/>
+        <v>194</v>
+      </c>
+      <c r="C12" s="241" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="242"/>
       <c r="E12" s="68" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="F12" s="63" t="s">
         <v>76</v>
       </c>
       <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
+      <c r="H12" s="70" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="66">
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="220" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="221"/>
+        <v>195</v>
+      </c>
+      <c r="C13" s="241" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="242"/>
       <c r="E13" s="68" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>76</v>
@@ -7190,66 +8099,40 @@
       <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="71">
-        <v>4</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="220" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="221"/>
-      <c r="E14" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>76</v>
-      </c>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="74"/>
       <c r="H14" s="75"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="71">
-        <v>5</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="220" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="221"/>
-      <c r="E15" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="63"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="74"/>
       <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="71">
-        <v>6</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="220" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="221"/>
-      <c r="E16" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="63"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="74"/>
       <c r="H16" s="75"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="220"/>
-      <c r="D17" s="221"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="242"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -7258,8 +8141,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="220"/>
-      <c r="D18" s="221"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="242"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -7268,8 +8151,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="220"/>
-      <c r="D19" s="221"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="242"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -7278,8 +8161,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="221"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="242"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -7288,8 +8171,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="221"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -7298,8 +8181,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="220"/>
-      <c r="D22" s="221"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="242"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -7308,8 +8191,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="220"/>
-      <c r="D23" s="221"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="242"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -7318,8 +8201,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="221"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="242"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -7328,8 +8211,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="220"/>
-      <c r="D25" s="221"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="242"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -7338,18 +8221,798 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="221"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="242"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
       <c r="H26" s="75"/>
     </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="223"/>
+      <c r="D27" s="225"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="80"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A29" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="231" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="233"/>
+      <c r="D30" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="55"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="61"/>
+      <c r="B31" s="243"/>
+      <c r="C31" s="244"/>
+      <c r="D31" s="245"/>
+      <c r="E31" s="246"/>
+      <c r="F31" s="247"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="65"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A32" s="66"/>
+      <c r="B32" s="236"/>
+      <c r="C32" s="237"/>
+      <c r="D32" s="220"/>
+      <c r="E32" s="221"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="70"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="66"/>
+      <c r="B33" s="236"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="220"/>
+      <c r="E33" s="221"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="70"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="66"/>
+      <c r="B34" s="236"/>
+      <c r="C34" s="237"/>
+      <c r="D34" s="220"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="222"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="70"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A35" s="76"/>
+      <c r="B35" s="238"/>
+      <c r="C35" s="239"/>
+      <c r="D35" s="223"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="225"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="80"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A37" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="231" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="232"/>
+      <c r="E38" s="233"/>
+      <c r="F38" s="231" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="240"/>
+      <c r="H38" s="58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="81">
+        <v>1</v>
+      </c>
+      <c r="B39" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="245" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="246"/>
+      <c r="E39" s="247"/>
+      <c r="F39" s="245" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" s="247"/>
+      <c r="H39" s="83" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A40" s="84"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="221"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="86"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="84"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="220"/>
+      <c r="D41" s="221"/>
+      <c r="E41" s="222"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="86"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="84"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="222"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="222"/>
+      <c r="H42" s="86"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A43" s="87"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="223"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="225"/>
+      <c r="F43" s="226"/>
+      <c r="G43" s="227"/>
+      <c r="H43" s="89"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A45" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="46"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="231" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="232"/>
+      <c r="E46" s="233"/>
+      <c r="F46" s="234" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="235"/>
+      <c r="H46" s="49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="84"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="221"/>
+      <c r="E47" s="222"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="222"/>
+      <c r="H47" s="86"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A48" s="84"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="220"/>
+      <c r="D48" s="221"/>
+      <c r="E48" s="222"/>
+      <c r="F48" s="220"/>
+      <c r="G48" s="222"/>
+      <c r="H48" s="86"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="84"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="220"/>
+      <c r="D49" s="221"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="220"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="86"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A50" s="87"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="223"/>
+      <c r="D50" s="224"/>
+      <c r="E50" s="225"/>
+      <c r="F50" s="226"/>
+      <c r="G50" s="227"/>
+      <c r="H50" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82BB2F7-1D4B-4CBB-B97D-58D95C87AB85}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4">
+      <c r="A1" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="92">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="93"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="248" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="250"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="248" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="250"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="248" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="250"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A9" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="234" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="251"/>
+      <c r="E10" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="124">
+        <v>1</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="252" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="253"/>
+      <c r="E11" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="125">
+        <v>2</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="241" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="242"/>
+      <c r="E12" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="125">
+        <v>3</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="241" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="242"/>
+      <c r="E13" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="125">
+        <v>4</v>
+      </c>
+      <c r="B14" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="241" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="242"/>
+      <c r="E14" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="126">
+        <v>5</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="241" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="242"/>
+      <c r="E15" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="126">
+        <v>6</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="241" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="242"/>
+      <c r="E16" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="126">
+        <v>7</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="241" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="242"/>
+      <c r="E17" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="126">
+        <v>8</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="241" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="242"/>
+      <c r="E18" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="126">
+        <v>9</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="241" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="242"/>
+      <c r="E19" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="242"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="242"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+    </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="220"/>
-      <c r="D27" s="221"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="242"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -7358,8 +9021,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="221"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="242"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -7368,8 +9031,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="220"/>
-      <c r="D29" s="221"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="242"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -7378,8 +9041,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="234"/>
-      <c r="D30" s="235"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -7411,10 +9074,10 @@
       <c r="A33" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="236" t="s">
+      <c r="B33" s="231" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="237"/>
+      <c r="C33" s="233"/>
       <c r="D33" s="54" t="s">
         <v>80</v>
       </c>
@@ -7429,51 +9092,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="238"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="240"/>
-      <c r="E34" s="241"/>
-      <c r="F34" s="242"/>
+      <c r="B34" s="243"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="245"/>
+      <c r="E34" s="246"/>
+      <c r="F34" s="247"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="231"/>
-      <c r="E35" s="232"/>
-      <c r="F35" s="233"/>
+      <c r="B35" s="236"/>
+      <c r="C35" s="237"/>
+      <c r="D35" s="220"/>
+      <c r="E35" s="221"/>
+      <c r="F35" s="222"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="229"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="231"/>
-      <c r="E36" s="232"/>
-      <c r="F36" s="233"/>
+      <c r="B36" s="236"/>
+      <c r="C36" s="237"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="222"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="229"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="231"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="233"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="237"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="221"/>
+      <c r="F37" s="222"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="243"/>
-      <c r="C38" s="244"/>
-      <c r="D38" s="234"/>
-      <c r="E38" s="245"/>
-      <c r="F38" s="235"/>
+      <c r="B38" s="238"/>
+      <c r="C38" s="239"/>
+      <c r="D38" s="223"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="225"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -7506,67 +9169,87 @@
       <c r="B41" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="236" t="s">
+      <c r="C41" s="231" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="246"/>
-      <c r="E41" s="237"/>
-      <c r="F41" s="236" t="s">
+      <c r="D41" s="232"/>
+      <c r="E41" s="233"/>
+      <c r="F41" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="247"/>
+      <c r="G41" s="240"/>
       <c r="H41" s="58" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="81"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="240"/>
-      <c r="D42" s="241"/>
-      <c r="E42" s="242"/>
-      <c r="F42" s="240"/>
-      <c r="G42" s="242"/>
-      <c r="H42" s="83"/>
+      <c r="A42" s="94">
+        <v>1</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="228" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="229"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="228" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="230"/>
+      <c r="H42" s="96" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="231"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="233"/>
-      <c r="F43" s="231"/>
-      <c r="G43" s="233"/>
-      <c r="H43" s="86"/>
+      <c r="A43" s="127">
+        <v>2</v>
+      </c>
+      <c r="B43" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="262" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="269"/>
+      <c r="E43" s="263"/>
+      <c r="F43" s="262" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="263"/>
+      <c r="H43" s="133" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="231"/>
-      <c r="D44" s="232"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="233"/>
+      <c r="C44" s="220"/>
+      <c r="D44" s="221"/>
+      <c r="E44" s="222"/>
+      <c r="F44" s="220"/>
+      <c r="G44" s="222"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="231"/>
-      <c r="D45" s="232"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="231"/>
-      <c r="G45" s="233"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="222"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="222"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="234"/>
-      <c r="D46" s="245"/>
-      <c r="E46" s="235"/>
-      <c r="F46" s="251"/>
-      <c r="G46" s="252"/>
+      <c r="C46" s="223"/>
+      <c r="D46" s="224"/>
+      <c r="E46" s="225"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="227"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -7598,15 +9281,15 @@
       <c r="B49" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="236" t="s">
+      <c r="C49" s="231" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="246"/>
-      <c r="E49" s="237"/>
-      <c r="F49" s="225" t="s">
+      <c r="D49" s="232"/>
+      <c r="E49" s="233"/>
+      <c r="F49" s="234" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="253"/>
+      <c r="G49" s="235"/>
       <c r="H49" s="49" t="s">
         <v>89</v>
       </c>
@@ -7615,60 +9298,60 @@
       <c r="A50" s="94">
         <v>1</v>
       </c>
-      <c r="B50" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="248" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="249"/>
-      <c r="E50" s="250"/>
-      <c r="F50" s="248" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" s="250"/>
+      <c r="B50" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="228" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="229"/>
+      <c r="E50" s="230"/>
+      <c r="F50" s="228" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="230"/>
       <c r="H50" s="96" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="231"/>
-      <c r="D51" s="232"/>
-      <c r="E51" s="233"/>
-      <c r="F51" s="231"/>
-      <c r="G51" s="233"/>
+      <c r="C51" s="220"/>
+      <c r="D51" s="221"/>
+      <c r="E51" s="222"/>
+      <c r="F51" s="220"/>
+      <c r="G51" s="222"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="231"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="233"/>
-      <c r="F52" s="231"/>
-      <c r="G52" s="233"/>
+      <c r="C52" s="220"/>
+      <c r="D52" s="221"/>
+      <c r="E52" s="222"/>
+      <c r="F52" s="220"/>
+      <c r="G52" s="222"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="231"/>
-      <c r="D53" s="232"/>
-      <c r="E53" s="233"/>
-      <c r="F53" s="231"/>
-      <c r="G53" s="233"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="221"/>
+      <c r="E53" s="222"/>
+      <c r="F53" s="220"/>
+      <c r="G53" s="222"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="245"/>
-      <c r="E54" s="235"/>
-      <c r="F54" s="251"/>
-      <c r="G54" s="252"/>
+      <c r="C54" s="223"/>
+      <c r="D54" s="224"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="226"/>
+      <c r="G54" s="227"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
@@ -7739,15 +9422,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82BB2F7-1D4B-4CBB-B97D-58D95C87AB85}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4301128B-D1A0-47B4-8F76-DDDAD317EF6E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -7791,7 +9474,7 @@
         <v>27</v>
       </c>
       <c r="H2" s="92">
-        <v>45054</v>
+        <v>45055</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
@@ -7845,42 +9528,42 @@
         <v>63</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="222" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="224"/>
+      <c r="C6" s="248" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="250"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="222" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="223"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="224"/>
+      <c r="C7" s="270" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="272"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="222" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="224"/>
+      <c r="C8" s="248" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="250"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="46" t="s">
@@ -7901,10 +9584,10 @@
       <c r="B10" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="225" t="s">
+      <c r="C10" s="234" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="226"/>
+      <c r="D10" s="251"/>
       <c r="E10" s="48" t="s">
         <v>71</v>
       </c>
@@ -7923,100 +9606,100 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="227" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="228"/>
+        <v>135</v>
+      </c>
+      <c r="C11" s="252" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="253"/>
       <c r="E11" s="63" t="s">
         <v>94</v>
       </c>
       <c r="F11" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="63"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="65" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="125">
+      <c r="A12" s="124">
         <v>2</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="220" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="221"/>
+      <c r="B12" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="165" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="166"/>
       <c r="E12" s="63" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70" t="s">
-        <v>95</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="125">
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="220" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="221"/>
-      <c r="E13" s="68" t="s">
-        <v>75</v>
+        <v>92</v>
+      </c>
+      <c r="C13" s="241" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="242"/>
+      <c r="E13" s="63" t="s">
+        <v>94</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>76</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="125">
         <v>4</v>
       </c>
-      <c r="B14" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="220" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="221"/>
-      <c r="E14" s="73" t="s">
-        <v>114</v>
+      <c r="B14" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="241" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="242"/>
+      <c r="E14" s="63" t="s">
+        <v>94</v>
       </c>
       <c r="F14" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="126">
         <v>5</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="220" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="221"/>
+        <v>137</v>
+      </c>
+      <c r="C15" s="241" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="242"/>
       <c r="E15" s="73" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>76</v>
@@ -8029,14 +9712,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="220" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="221"/>
+        <v>121</v>
+      </c>
+      <c r="C16" s="241" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="242"/>
       <c r="E16" s="73" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F16" s="63" t="s">
         <v>76</v>
@@ -8049,12 +9732,12 @@
         <v>7</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="220" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="221"/>
+        <v>124</v>
+      </c>
+      <c r="C17" s="241" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="242"/>
       <c r="E17" s="73" t="s">
         <v>94</v>
       </c>
@@ -8069,16 +9752,18 @@
         <v>8</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="220" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="221"/>
+        <v>126</v>
+      </c>
+      <c r="C18" s="241" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="242"/>
       <c r="E18" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="63"/>
+        <v>94</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>76</v>
+      </c>
       <c r="G18" s="74"/>
       <c r="H18" s="75"/>
     </row>
@@ -8087,12 +9772,12 @@
         <v>9</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="220" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="221"/>
+        <v>128</v>
+      </c>
+      <c r="C19" s="241" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="242"/>
       <c r="E19" s="73" t="s">
         <v>111</v>
       </c>
@@ -8101,20 +9786,28 @@
       <c r="H19" s="75"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
+      <c r="A20" s="126">
+        <v>10</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="241" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="242"/>
+      <c r="E20" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="63"/>
       <c r="G20" s="74"/>
       <c r="H20" s="75"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="221"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -8123,8 +9816,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="220"/>
-      <c r="D22" s="221"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="242"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -8133,8 +9826,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="220"/>
-      <c r="D23" s="221"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="242"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -8143,8 +9836,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="221"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="242"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -8153,8 +9846,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="220"/>
-      <c r="D25" s="221"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="242"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -8163,8 +9856,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="221"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="242"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -8173,8 +9866,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="220"/>
-      <c r="D27" s="221"/>
+      <c r="C27" s="241"/>
+      <c r="D27" s="242"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -8183,8 +9876,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="221"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="242"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -8193,374 +9886,338 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="220"/>
-      <c r="D29" s="221"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="242"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
       <c r="H29" s="75"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="234"/>
-      <c r="D30" s="235"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="225"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A33" s="53" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="236" t="s">
+      <c r="B34" s="231" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="237"/>
-      <c r="D33" s="54" t="s">
+      <c r="C34" s="233"/>
+      <c r="D34" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57" t="s">
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="H34" s="58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="238"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="240"/>
-      <c r="E34" s="241"/>
-      <c r="F34" s="242"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65"/>
-    </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="231"/>
-      <c r="E35" s="232"/>
-      <c r="F35" s="233"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="243"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="245"/>
+      <c r="E35" s="246"/>
+      <c r="F35" s="247"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="65"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="229"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="231"/>
-      <c r="E36" s="232"/>
-      <c r="F36" s="233"/>
+      <c r="B36" s="236"/>
+      <c r="C36" s="237"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="222"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="229"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="231"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="233"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="237"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="221"/>
+      <c r="F37" s="222"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A38" s="76"/>
-      <c r="B38" s="243"/>
-      <c r="C38" s="244"/>
-      <c r="D38" s="234"/>
-      <c r="E38" s="245"/>
-      <c r="F38" s="235"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="236"/>
+      <c r="C38" s="237"/>
+      <c r="D38" s="220"/>
+      <c r="E38" s="221"/>
+      <c r="F38" s="222"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="70"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="238"/>
+      <c r="C39" s="239"/>
+      <c r="D39" s="223"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="225"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="80"/>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A41" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A41" s="53" t="s">
+      <c r="B41" s="46"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B42" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="236" t="s">
+      <c r="C42" s="231" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="246"/>
-      <c r="E41" s="237"/>
-      <c r="F41" s="236" t="s">
+      <c r="D42" s="232"/>
+      <c r="E42" s="233"/>
+      <c r="F42" s="231" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="247"/>
-      <c r="H41" s="58" t="s">
+      <c r="G42" s="240"/>
+      <c r="H42" s="58" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="94">
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="129">
         <v>1</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B43" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="248" t="s">
+      <c r="C43" s="228" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="249"/>
-      <c r="E42" s="250"/>
-      <c r="F42" s="248" t="s">
+      <c r="D43" s="229"/>
+      <c r="E43" s="230"/>
+      <c r="F43" s="228" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="250"/>
-      <c r="H42" s="96" t="s">
+      <c r="G43" s="230"/>
+      <c r="H43" s="96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="127">
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="130">
         <v>2</v>
       </c>
-      <c r="B43" s="128" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="266" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="269"/>
-      <c r="E43" s="267"/>
-      <c r="F43" s="266" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="267"/>
-      <c r="H43" s="133" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="231"/>
-      <c r="D44" s="232"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="233"/>
-      <c r="H44" s="86"/>
+      <c r="B44" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="262" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="269"/>
+      <c r="E44" s="263"/>
+      <c r="F44" s="262" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="263"/>
+      <c r="H44" s="133" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="231"/>
-      <c r="D45" s="232"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="231"/>
-      <c r="G45" s="233"/>
+      <c r="C45" s="220"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="222"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="222"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A46" s="87"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="234"/>
-      <c r="D46" s="245"/>
-      <c r="E46" s="235"/>
-      <c r="F46" s="251"/>
-      <c r="G46" s="252"/>
-      <c r="H46" s="89"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="220"/>
+      <c r="D46" s="221"/>
+      <c r="E46" s="222"/>
+      <c r="F46" s="220"/>
+      <c r="G46" s="222"/>
+      <c r="H46" s="86"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="223"/>
+      <c r="D47" s="224"/>
+      <c r="E47" s="225"/>
+      <c r="F47" s="226"/>
+      <c r="G47" s="227"/>
+      <c r="H47" s="89"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A49" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A49" s="47" t="s">
+      <c r="B49" s="46"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B50" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="236" t="s">
+      <c r="C50" s="231" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="246"/>
-      <c r="E49" s="237"/>
-      <c r="F49" s="225" t="s">
+      <c r="D50" s="232"/>
+      <c r="E50" s="233"/>
+      <c r="F50" s="234" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="253"/>
-      <c r="H49" s="49" t="s">
+      <c r="G50" s="235"/>
+      <c r="H50" s="49" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="94">
-        <v>1</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="248" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="249"/>
-      <c r="E50" s="250"/>
-      <c r="F50" s="248" t="s">
-        <v>133</v>
-      </c>
-      <c r="G50" s="250"/>
-      <c r="H50" s="96" t="s">
-        <v>132</v>
-      </c>
-    </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="84"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="231"/>
-      <c r="D51" s="232"/>
-      <c r="E51" s="233"/>
-      <c r="F51" s="231"/>
-      <c r="G51" s="233"/>
-      <c r="H51" s="86"/>
+      <c r="A51" s="129"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="228"/>
+      <c r="D51" s="229"/>
+      <c r="E51" s="230"/>
+      <c r="F51" s="228"/>
+      <c r="G51" s="230"/>
+      <c r="H51" s="96"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="231"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="233"/>
-      <c r="F52" s="231"/>
-      <c r="G52" s="233"/>
+      <c r="C52" s="220"/>
+      <c r="D52" s="221"/>
+      <c r="E52" s="222"/>
+      <c r="F52" s="220"/>
+      <c r="G52" s="222"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="231"/>
-      <c r="D53" s="232"/>
-      <c r="E53" s="233"/>
-      <c r="F53" s="231"/>
-      <c r="G53" s="233"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="221"/>
+      <c r="E53" s="222"/>
+      <c r="F53" s="220"/>
+      <c r="G53" s="222"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A54" s="87"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="245"/>
-      <c r="E54" s="235"/>
-      <c r="F54" s="251"/>
-      <c r="G54" s="252"/>
-      <c r="H54" s="89"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="220"/>
+      <c r="D54" s="221"/>
+      <c r="E54" s="222"/>
+      <c r="F54" s="220"/>
+      <c r="G54" s="222"/>
+      <c r="H54" s="86"/>
+    </row>
+    <row r="55" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A55" s="87"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="223"/>
+      <c r="D55" s="224"/>
+      <c r="E55" s="225"/>
+      <c r="F55" s="226"/>
+      <c r="G55" s="227"/>
+      <c r="H55" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -8571,12 +10228,48 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8584,842 +10277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4301128B-D1A0-47B4-8F76-DDDAD317EF6E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="92">
-        <v>45055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="93"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="93" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="41"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="222" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="224"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="270" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="271"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="271"/>
-      <c r="G7" s="271"/>
-      <c r="H7" s="272"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="222" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="224"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A9" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="225" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="226"/>
-      <c r="E10" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="124">
-        <v>1</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="227" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="228"/>
-      <c r="E11" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="125">
-        <v>2</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="220" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="221"/>
-      <c r="E12" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="125">
-        <v>3</v>
-      </c>
-      <c r="B13" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="220" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="221"/>
-      <c r="E13" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="126">
-        <v>4</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="220" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="221"/>
-      <c r="E14" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="126">
-        <v>5</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="220" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="221"/>
-      <c r="E15" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="126">
-        <v>6</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="220" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="221"/>
-      <c r="E16" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="126">
-        <v>7</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="220" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="221"/>
-      <c r="E17" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="126">
-        <v>8</v>
-      </c>
-      <c r="B18" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="220" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="221"/>
-      <c r="E18" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="126">
-        <v>9</v>
-      </c>
-      <c r="B19" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="220" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="221"/>
-      <c r="E19" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="220"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="220"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="220"/>
-      <c r="D25" s="221"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="221"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="220"/>
-      <c r="D27" s="221"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="221"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="220"/>
-      <c r="D29" s="221"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="234"/>
-      <c r="D30" s="235"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A32" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A33" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="236" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="237"/>
-      <c r="D33" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="238"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="240"/>
-      <c r="E34" s="241"/>
-      <c r="F34" s="242"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="230"/>
-      <c r="D35" s="231"/>
-      <c r="E35" s="232"/>
-      <c r="F35" s="233"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="70"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="229"/>
-      <c r="C36" s="230"/>
-      <c r="D36" s="231"/>
-      <c r="E36" s="232"/>
-      <c r="F36" s="233"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="70"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="66"/>
-      <c r="B37" s="229"/>
-      <c r="C37" s="230"/>
-      <c r="D37" s="231"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="233"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A38" s="76"/>
-      <c r="B38" s="243"/>
-      <c r="C38" s="244"/>
-      <c r="D38" s="234"/>
-      <c r="E38" s="245"/>
-      <c r="F38" s="235"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="80"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A40" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A41" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="236" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="246"/>
-      <c r="E41" s="237"/>
-      <c r="F41" s="236" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="247"/>
-      <c r="H41" s="58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="129">
-        <v>1</v>
-      </c>
-      <c r="B42" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="248" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="249"/>
-      <c r="E42" s="250"/>
-      <c r="F42" s="248" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="250"/>
-      <c r="H42" s="96" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="130">
-        <v>2</v>
-      </c>
-      <c r="B43" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="266" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" s="269"/>
-      <c r="E43" s="267"/>
-      <c r="F43" s="266" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="267"/>
-      <c r="H43" s="133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="231"/>
-      <c r="D44" s="232"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="233"/>
-      <c r="H44" s="86"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="84"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="231"/>
-      <c r="D45" s="232"/>
-      <c r="E45" s="233"/>
-      <c r="F45" s="231"/>
-      <c r="G45" s="233"/>
-      <c r="H45" s="86"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A46" s="87"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="234"/>
-      <c r="D46" s="245"/>
-      <c r="E46" s="235"/>
-      <c r="F46" s="251"/>
-      <c r="G46" s="252"/>
-      <c r="H46" s="89"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A48" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A49" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="236" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="246"/>
-      <c r="E49" s="237"/>
-      <c r="F49" s="225" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" s="253"/>
-      <c r="H49" s="49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="129"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="248"/>
-      <c r="D50" s="249"/>
-      <c r="E50" s="250"/>
-      <c r="F50" s="248"/>
-      <c r="G50" s="250"/>
-      <c r="H50" s="96"/>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="84"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="231"/>
-      <c r="D51" s="232"/>
-      <c r="E51" s="233"/>
-      <c r="F51" s="231"/>
-      <c r="G51" s="233"/>
-      <c r="H51" s="86"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="84"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="231"/>
-      <c r="D52" s="232"/>
-      <c r="E52" s="233"/>
-      <c r="F52" s="231"/>
-      <c r="G52" s="233"/>
-      <c r="H52" s="86"/>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A53" s="84"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="231"/>
-      <c r="D53" s="232"/>
-      <c r="E53" s="233"/>
-      <c r="F53" s="231"/>
-      <c r="G53" s="233"/>
-      <c r="H53" s="86"/>
-    </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A54" s="87"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="234"/>
-      <c r="D54" s="245"/>
-      <c r="E54" s="235"/>
-      <c r="F54" s="251"/>
-      <c r="G54" s="252"/>
-      <c r="H54" s="89"/>
-    </row>
-  </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9575,13 +10433,13 @@
     <row r="9" spans="1:11" ht="21.75" customHeight="1">
       <c r="A9" s="97"/>
       <c r="F9" s="98"/>
-      <c r="G9" s="276" t="s">
+      <c r="G9" s="273" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="277"/>
-      <c r="I9" s="277"/>
-      <c r="J9" s="277"/>
-      <c r="K9" s="277"/>
+      <c r="H9" s="274"/>
+      <c r="I9" s="274"/>
+      <c r="J9" s="274"/>
+      <c r="K9" s="274"/>
     </row>
     <row r="10" spans="1:11" ht="21.75" customHeight="1">
       <c r="A10" s="97"/>
@@ -9608,15 +10466,15 @@
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1">
       <c r="A11" s="97"/>
-      <c r="B11" s="278" t="s">
+      <c r="B11" s="275" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="273" t="s">
+      <c r="C11" s="278" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="274"/>
-      <c r="E11" s="274"/>
-      <c r="F11" s="275"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="102" t="s">
         <v>154</v>
       </c>
@@ -9635,13 +10493,13 @@
     </row>
     <row r="12" spans="1:11" ht="22.5" customHeight="1">
       <c r="A12" s="97"/>
-      <c r="B12" s="279"/>
-      <c r="C12" s="273" t="s">
+      <c r="B12" s="276"/>
+      <c r="C12" s="278" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="274"/>
-      <c r="E12" s="274"/>
-      <c r="F12" s="275"/>
+      <c r="D12" s="279"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="280"/>
       <c r="G12" s="102" t="s">
         <v>154</v>
       </c>
@@ -9660,13 +10518,13 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="97"/>
-      <c r="B13" s="279"/>
-      <c r="C13" s="273" t="s">
+      <c r="B13" s="276"/>
+      <c r="C13" s="278" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="274"/>
-      <c r="E13" s="274"/>
-      <c r="F13" s="275"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="279"/>
+      <c r="F13" s="280"/>
       <c r="G13" s="102" t="s">
         <v>158</v>
       </c>
@@ -9685,11 +10543,11 @@
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1">
       <c r="A14" s="97"/>
-      <c r="B14" s="279"/>
-      <c r="C14" s="273"/>
-      <c r="D14" s="274"/>
-      <c r="E14" s="274"/>
-      <c r="F14" s="275"/>
+      <c r="B14" s="276"/>
+      <c r="C14" s="278"/>
+      <c r="D14" s="279"/>
+      <c r="E14" s="279"/>
+      <c r="F14" s="280"/>
       <c r="G14" s="102"/>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -9698,13 +10556,13 @@
     </row>
     <row r="15" spans="1:11" ht="22.5" customHeight="1">
       <c r="A15" s="97"/>
-      <c r="B15" s="279"/>
-      <c r="C15" s="273" t="s">
+      <c r="B15" s="276"/>
+      <c r="C15" s="278" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="274"/>
-      <c r="E15" s="274"/>
-      <c r="F15" s="275"/>
+      <c r="D15" s="279"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="280"/>
       <c r="G15" s="102" t="s">
         <v>154</v>
       </c>
@@ -9723,7 +10581,7 @@
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
       <c r="A16" s="97"/>
-      <c r="B16" s="279"/>
+      <c r="B16" s="276"/>
       <c r="C16" s="163" t="s">
         <v>180</v>
       </c>
@@ -9748,13 +10606,13 @@
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1">
       <c r="A17" s="97"/>
-      <c r="B17" s="279"/>
-      <c r="C17" s="273" t="s">
+      <c r="B17" s="276"/>
+      <c r="C17" s="278" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="274"/>
-      <c r="E17" s="274"/>
-      <c r="F17" s="275"/>
+      <c r="D17" s="279"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="280"/>
       <c r="G17" s="102" t="s">
         <v>154</v>
       </c>
@@ -9773,7 +10631,7 @@
     </row>
     <row r="18" spans="1:11" ht="22.5" customHeight="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="279"/>
+      <c r="B18" s="276"/>
       <c r="C18" s="163" t="s">
         <v>181</v>
       </c>
@@ -9798,13 +10656,13 @@
     </row>
     <row r="19" spans="1:11" ht="22.5" customHeight="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="279"/>
-      <c r="C19" s="273" t="s">
+      <c r="B19" s="276"/>
+      <c r="C19" s="278" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="274"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="275"/>
+      <c r="D19" s="279"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="280"/>
       <c r="G19" s="102" t="s">
         <v>155</v>
       </c>
@@ -9823,7 +10681,7 @@
     </row>
     <row r="20" spans="1:11" ht="22.5" customHeight="1">
       <c r="A20" s="97"/>
-      <c r="B20" s="279"/>
+      <c r="B20" s="276"/>
       <c r="C20" s="163" t="s">
         <v>184</v>
       </c>
@@ -9848,11 +10706,11 @@
     </row>
     <row r="21" spans="1:11" ht="22.5" customHeight="1">
       <c r="A21" s="97"/>
-      <c r="B21" s="279"/>
-      <c r="C21" s="273"/>
-      <c r="D21" s="274"/>
-      <c r="E21" s="274"/>
-      <c r="F21" s="275"/>
+      <c r="B21" s="276"/>
+      <c r="C21" s="278"/>
+      <c r="D21" s="279"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="280"/>
       <c r="G21" s="102"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
@@ -9861,13 +10719,13 @@
     </row>
     <row r="22" spans="1:11" ht="22.5" customHeight="1">
       <c r="A22" s="97"/>
-      <c r="B22" s="279"/>
-      <c r="C22" s="273" t="s">
+      <c r="B22" s="276"/>
+      <c r="C22" s="278" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="274"/>
-      <c r="E22" s="274"/>
-      <c r="F22" s="275"/>
+      <c r="D22" s="279"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="280"/>
       <c r="G22" s="102" t="s">
         <v>161</v>
       </c>
@@ -9886,13 +10744,13 @@
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1">
       <c r="A23" s="97"/>
-      <c r="B23" s="279"/>
-      <c r="C23" s="273" t="s">
+      <c r="B23" s="276"/>
+      <c r="C23" s="278" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="274"/>
-      <c r="E23" s="274"/>
-      <c r="F23" s="275"/>
+      <c r="D23" s="279"/>
+      <c r="E23" s="279"/>
+      <c r="F23" s="280"/>
       <c r="G23" s="102" t="s">
         <v>154</v>
       </c>
@@ -9911,13 +10769,13 @@
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1">
       <c r="A24" s="97"/>
-      <c r="B24" s="279"/>
-      <c r="C24" s="273" t="s">
+      <c r="B24" s="276"/>
+      <c r="C24" s="278" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="274"/>
-      <c r="E24" s="274"/>
-      <c r="F24" s="275"/>
+      <c r="D24" s="279"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="280"/>
       <c r="G24" s="102" t="s">
         <v>154</v>
       </c>
@@ -9936,13 +10794,13 @@
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1">
       <c r="A25" s="97"/>
-      <c r="B25" s="279"/>
-      <c r="C25" s="273" t="s">
+      <c r="B25" s="276"/>
+      <c r="C25" s="278" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="274"/>
-      <c r="E25" s="274"/>
-      <c r="F25" s="275"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="280"/>
       <c r="G25" s="102" t="s">
         <v>167</v>
       </c>
@@ -9961,11 +10819,11 @@
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1">
       <c r="A26" s="97"/>
-      <c r="B26" s="279"/>
-      <c r="C26" s="273"/>
-      <c r="D26" s="274"/>
-      <c r="E26" s="274"/>
-      <c r="F26" s="275"/>
+      <c r="B26" s="276"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="279"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="280"/>
       <c r="G26" s="102"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
@@ -9974,11 +10832,11 @@
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1">
       <c r="A27" s="97"/>
-      <c r="B27" s="279"/>
-      <c r="C27" s="273"/>
-      <c r="D27" s="274"/>
-      <c r="E27" s="274"/>
-      <c r="F27" s="275"/>
+      <c r="B27" s="276"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="280"/>
       <c r="G27" s="102"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
@@ -9987,11 +10845,11 @@
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1">
       <c r="A28" s="97"/>
-      <c r="B28" s="279"/>
-      <c r="C28" s="273"/>
-      <c r="D28" s="274"/>
-      <c r="E28" s="274"/>
-      <c r="F28" s="275"/>
+      <c r="B28" s="276"/>
+      <c r="C28" s="278"/>
+      <c r="D28" s="279"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="280"/>
       <c r="G28" s="102"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
@@ -10000,11 +10858,11 @@
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1">
       <c r="A29" s="97"/>
-      <c r="B29" s="279"/>
-      <c r="C29" s="273"/>
-      <c r="D29" s="274"/>
-      <c r="E29" s="274"/>
-      <c r="F29" s="275"/>
+      <c r="B29" s="276"/>
+      <c r="C29" s="278"/>
+      <c r="D29" s="279"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="280"/>
       <c r="G29" s="102"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
@@ -10013,11 +10871,11 @@
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1">
       <c r="A30" s="97"/>
-      <c r="B30" s="279"/>
-      <c r="C30" s="273"/>
-      <c r="D30" s="274"/>
-      <c r="E30" s="274"/>
-      <c r="F30" s="275"/>
+      <c r="B30" s="276"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="279"/>
+      <c r="E30" s="279"/>
+      <c r="F30" s="280"/>
       <c r="G30" s="102"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
@@ -10026,11 +10884,11 @@
     </row>
     <row r="31" spans="1:11" ht="22.5" customHeight="1">
       <c r="A31" s="97"/>
-      <c r="B31" s="279"/>
-      <c r="C31" s="273"/>
-      <c r="D31" s="274"/>
-      <c r="E31" s="274"/>
-      <c r="F31" s="275"/>
+      <c r="B31" s="276"/>
+      <c r="C31" s="278"/>
+      <c r="D31" s="279"/>
+      <c r="E31" s="279"/>
+      <c r="F31" s="280"/>
       <c r="G31" s="102"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
@@ -10039,11 +10897,11 @@
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1">
       <c r="A32" s="97"/>
-      <c r="B32" s="279"/>
-      <c r="C32" s="273"/>
-      <c r="D32" s="274"/>
-      <c r="E32" s="274"/>
-      <c r="F32" s="275"/>
+      <c r="B32" s="276"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="279"/>
+      <c r="E32" s="279"/>
+      <c r="F32" s="280"/>
       <c r="G32" s="102"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
@@ -10052,11 +10910,11 @@
     </row>
     <row r="33" spans="1:11" ht="23.25" customHeight="1">
       <c r="A33" s="97"/>
-      <c r="B33" s="279"/>
-      <c r="C33" s="273"/>
-      <c r="D33" s="274"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="275"/>
+      <c r="B33" s="276"/>
+      <c r="C33" s="278"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="279"/>
+      <c r="F33" s="280"/>
       <c r="G33" s="102"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
@@ -10065,11 +10923,11 @@
     </row>
     <row r="34" spans="1:11" ht="23.25" customHeight="1">
       <c r="A34" s="97"/>
-      <c r="B34" s="279"/>
-      <c r="C34" s="273"/>
-      <c r="D34" s="274"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="275"/>
+      <c r="B34" s="276"/>
+      <c r="C34" s="278"/>
+      <c r="D34" s="279"/>
+      <c r="E34" s="279"/>
+      <c r="F34" s="280"/>
       <c r="G34" s="102"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
@@ -10078,11 +10936,11 @@
     </row>
     <row r="35" spans="1:11" ht="23.25" customHeight="1">
       <c r="A35" s="97"/>
-      <c r="B35" s="280"/>
-      <c r="C35" s="273"/>
-      <c r="D35" s="274"/>
-      <c r="E35" s="274"/>
-      <c r="F35" s="275"/>
+      <c r="B35" s="277"/>
+      <c r="C35" s="278"/>
+      <c r="D35" s="279"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="280"/>
       <c r="G35" s="102"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
@@ -10091,10 +10949,10 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="97"/>
-      <c r="C36" s="273"/>
-      <c r="D36" s="274"/>
-      <c r="E36" s="274"/>
-      <c r="F36" s="275"/>
+      <c r="C36" s="278"/>
+      <c r="D36" s="279"/>
+      <c r="E36" s="279"/>
+      <c r="F36" s="280"/>
       <c r="G36" s="102"/>
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
@@ -10118,6 +10976,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="B11:B35"/>
     <mergeCell ref="C11:F11"/>
@@ -10131,18 +11001,6 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10160,6 +11018,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E0A7EB1C84FE4E48B42E395C0170D4D9" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9386bc045b67cafa3351525efa2003fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="540e6531-8795-4248-80ce-25efd73518ad" xmlns:ns3="d4884cc8-da59-4935-9350-efc2119afb64" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7588742304aade531307f5737b871ff4" ns2:_="" ns3:_="">
     <xsd:import namespace="540e6531-8795-4248-80ce-25efd73518ad"/>
@@ -10348,17 +11217,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="540e6531-8795-4248-80ce-25efd73518ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4884cc8-da59-4935-9350-efc2119afb64" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A122AB63-FCCF-47AE-BB8B-E30B0667C4FC}">
   <ds:schemaRefs>
@@ -10368,6 +11226,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670F2671-A5CC-40C5-9AA5-7CEAEBE0993C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
+    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AF9E5FC-E79A-4CAA-A4BE-1F8532D05B85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10384,15 +11253,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{670F2671-A5CC-40C5-9AA5-7CEAEBE0993C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="540e6531-8795-4248-80ce-25efd73518ad"/>
-    <ds:schemaRef ds:uri="d4884cc8-da59-4935-9350-efc2119afb64"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/03データベース設計書/03_データベース設計書(やまったー)完成版.xlsx
+++ b/03データベース設計書/03_データベース設計書(やまったー)完成版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\システム開発\GitHub\03データベース設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B77FAB-CBD8-4F58-A18D-B74608858D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC7494-8148-457B-BBED-CDF8577D1CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="CRUD図 " sheetId="18" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'CRUD図 '!$A$1:$K$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'CRUD図 '!$A$1:$L$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ジャンル!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">プロフィールいいね一覧!$A$1:$H$50</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="217">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -546,9 +546,6 @@
     <t>メールアドレス</t>
   </si>
   <si>
-    <t>email address</t>
-  </si>
-  <si>
     <t>パスワード</t>
   </si>
   <si>
@@ -570,9 +567,6 @@
     <t>自己紹介</t>
   </si>
   <si>
-    <t>self introduction</t>
-  </si>
-  <si>
     <t>VARCHAR(200)</t>
   </si>
   <si>
@@ -589,9 +583,6 @@
   </si>
   <si>
     <t>投稿内容</t>
-  </si>
-  <si>
-    <t>post_contents</t>
   </si>
   <si>
     <t>日時</t>
@@ -1029,6 +1020,65 @@
   </si>
   <si>
     <t>NN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>self_introduction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>email_address</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンルID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>genre_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>post_contents</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>date_time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fabulous</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>comments</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>media1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロフィールいいね一覧</t>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2999,22 +3049,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:colOff>1457325</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>80229</xdr:rowOff>
+      <xdr:rowOff>50157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8E54C1-7641-AD0E-8C24-29B6A97BF0B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142314E4-1594-04F2-C889-1AED1595F7FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,8 +3080,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="6248400"/>
-          <a:ext cx="7772400" cy="4404579"/>
+          <a:off x="228600" y="6305550"/>
+          <a:ext cx="7772400" cy="4317357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4976,8 +5026,8 @@
   </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -5210,16 +5260,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="212" t="s">
         <v>189</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="212" t="s">
-        <v>192</v>
       </c>
       <c r="F15" s="213"/>
     </row>
@@ -5513,8 +5563,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -5690,14 +5740,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C11" s="252" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D11" s="253"/>
       <c r="E11" s="63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11" s="63" t="s">
         <v>76</v>
@@ -5712,17 +5762,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C12" s="241" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D12" s="242"/>
       <c r="E12" s="68" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F12" s="68" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70"/>
@@ -6471,7 +6521,7 @@
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
@@ -6479,21 +6529,21 @@
         <v>2</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C12" s="165" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D12" s="166"/>
       <c r="E12" s="63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F12" s="148" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G12" s="63"/>
       <c r="H12" s="144" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -6501,10 +6551,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C13" s="241" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D13" s="242"/>
       <c r="E13" s="68" t="s">
@@ -7067,8 +7117,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -7291,11 +7341,11 @@
         <v>104</v>
       </c>
       <c r="C13" s="241" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="D13" s="242"/>
       <c r="E13" s="68" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>76</v>
@@ -7308,14 +7358,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="241" t="s">
         <v>106</v>
-      </c>
-      <c r="C14" s="241" t="s">
-        <v>107</v>
       </c>
       <c r="D14" s="242"/>
       <c r="E14" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="63" t="s">
         <v>76</v>
@@ -7328,14 +7378,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="241" t="s">
         <v>109</v>
-      </c>
-      <c r="C15" s="241" t="s">
-        <v>110</v>
       </c>
       <c r="D15" s="242"/>
       <c r="E15" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="74"/>
@@ -7346,14 +7396,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="241" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="D16" s="242"/>
       <c r="E16" s="73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="74"/>
@@ -7860,7 +7910,7 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -7976,7 +8026,7 @@
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="248" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D7" s="249"/>
       <c r="E7" s="249"/>
@@ -7990,7 +8040,7 @@
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="248" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D8" s="249"/>
       <c r="E8" s="249"/>
@@ -8039,10 +8089,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="252" t="s">
         <v>193</v>
-      </c>
-      <c r="C11" s="252" t="s">
-        <v>196</v>
       </c>
       <c r="D11" s="253"/>
       <c r="E11" s="63" t="s">
@@ -8061,21 +8111,21 @@
         <v>2</v>
       </c>
       <c r="B12" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="241" t="s">
         <v>194</v>
-      </c>
-      <c r="C12" s="241" t="s">
-        <v>197</v>
       </c>
       <c r="D12" s="242"/>
       <c r="E12" s="68" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F12" s="63" t="s">
         <v>76</v>
       </c>
       <c r="G12" s="69"/>
       <c r="H12" s="70" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -8083,14 +8133,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="241" t="s">
         <v>195</v>
-      </c>
-      <c r="C13" s="241" t="s">
-        <v>198</v>
       </c>
       <c r="D13" s="242"/>
       <c r="E13" s="68" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>76</v>
@@ -8377,19 +8427,19 @@
         <v>1</v>
       </c>
       <c r="B39" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="245" t="s">
         <v>194</v>
-      </c>
-      <c r="C39" s="245" t="s">
-        <v>197</v>
       </c>
       <c r="D39" s="246"/>
       <c r="E39" s="247"/>
       <c r="F39" s="245" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G39" s="247"/>
       <c r="H39" s="83" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1">
@@ -8542,11 +8592,6 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="C22:D22"/>
@@ -8555,11 +8600,11 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -8570,6 +8615,11 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8585,7 +8635,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -8623,7 +8673,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>27</v>
@@ -8712,7 +8762,7 @@
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="248" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="249"/>
       <c r="E8" s="249"/>
@@ -8761,10 +8811,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="252" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D11" s="253"/>
       <c r="E11" s="63" t="s">
@@ -8805,14 +8855,14 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="C13" s="241" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="D13" s="242"/>
       <c r="E13" s="68" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>76</v>
@@ -8827,14 +8877,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="241" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="D14" s="242"/>
       <c r="E14" s="73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F14" s="63" t="s">
         <v>76</v>
@@ -8847,14 +8897,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C15" s="241" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="D15" s="242"/>
       <c r="E15" s="73" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>76</v>
@@ -8867,10 +8917,10 @@
         <v>6</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" s="241" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="D16" s="242"/>
       <c r="E16" s="73" t="s">
@@ -8887,10 +8937,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C17" s="241" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="D17" s="242"/>
       <c r="E17" s="73" t="s">
@@ -8907,14 +8957,14 @@
         <v>8</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" s="241" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="D18" s="242"/>
       <c r="E18" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="74"/>
@@ -8925,14 +8975,14 @@
         <v>9</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C19" s="241" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D19" s="242"/>
       <c r="E19" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="74"/>
@@ -9299,19 +9349,19 @@
         <v>1</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C50" s="228" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D50" s="229"/>
       <c r="E50" s="230"/>
       <c r="F50" s="228" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G50" s="230"/>
       <c r="H50" s="96" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
@@ -9429,8 +9479,8 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -9468,7 +9518,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>27</v>
@@ -9557,7 +9607,7 @@
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="248" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D8" s="249"/>
       <c r="E8" s="249"/>
@@ -9606,10 +9656,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C11" s="252" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D11" s="253"/>
       <c r="E11" s="63" t="s">
@@ -9628,17 +9678,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C12" s="165" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D12" s="166"/>
       <c r="E12" s="63" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G12" s="64"/>
       <c r="H12" s="65"/>
@@ -9670,10 +9720,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="241" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="242"/>
       <c r="E14" s="63" t="s">
@@ -9692,14 +9742,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C15" s="241" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D15" s="242"/>
       <c r="E15" s="73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>76</v>
@@ -9712,14 +9762,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C16" s="241" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D16" s="242"/>
       <c r="E16" s="73" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F16" s="63" t="s">
         <v>76</v>
@@ -9732,10 +9782,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" s="241" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D17" s="242"/>
       <c r="E17" s="73" t="s">
@@ -9752,10 +9802,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C18" s="241" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D18" s="242"/>
       <c r="E18" s="73" t="s">
@@ -9772,14 +9822,14 @@
         <v>9</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C19" s="241" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D19" s="242"/>
       <c r="E19" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="74"/>
@@ -9790,14 +9840,14 @@
         <v>10</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C20" s="241" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D20" s="242"/>
       <c r="E20" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="74"/>
@@ -10072,19 +10122,19 @@
         <v>2</v>
       </c>
       <c r="B44" s="128" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C44" s="262" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="269"/>
       <c r="E44" s="263"/>
       <c r="F44" s="262" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G44" s="263"/>
       <c r="H44" s="133" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
@@ -10282,10 +10332,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="B6" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -10294,12 +10344,13 @@
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="9" width="10.109375" customWidth="1"/>
     <col min="10" max="10" width="15.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" customHeight="1">
+    <row r="1" spans="1:12" ht="17.25" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -10310,14 +10361,15 @@
       <c r="H1" s="113"/>
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
-      <c r="K1" s="114"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25" customHeight="1">
+      <c r="K1" s="113"/>
+      <c r="L1" s="114"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1">
       <c r="A2" s="115" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="116" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C2" s="117"/>
       <c r="D2" s="117"/>
@@ -10328,16 +10380,17 @@
         <v>23</v>
       </c>
       <c r="I2" s="117" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="161">
+      <c r="K2" s="32"/>
+      <c r="L2" s="161">
         <v>45053</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" customHeight="1">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1">
       <c r="A3" s="118" t="s">
         <v>25</v>
       </c>
@@ -10356,14 +10409,15 @@
       <c r="J3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="162"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.25" customHeight="1">
+      <c r="K3" s="32"/>
+      <c r="L3" s="162"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" customHeight="1">
       <c r="A4" s="115" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -10375,11 +10429,12 @@
       <c r="J4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="162" t="s">
+      <c r="K4" s="32"/>
+      <c r="L4" s="162" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.25" customHeight="1">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1">
       <c r="A5" s="119"/>
       <c r="B5" s="119"/>
       <c r="C5" s="119"/>
@@ -10390,14 +10445,15 @@
       <c r="H5" s="117"/>
       <c r="I5" s="117"/>
       <c r="J5" s="120"/>
-      <c r="K5" s="122"/>
-    </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1">
+      <c r="K5" s="120"/>
+      <c r="L5" s="122"/>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" customHeight="1">
       <c r="A6" s="121" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C6" s="117"/>
       <c r="D6" s="117"/>
@@ -10407,14 +10463,15 @@
       <c r="H6" s="117"/>
       <c r="I6" s="117"/>
       <c r="J6" s="117"/>
-      <c r="K6" s="122"/>
-    </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1">
+      <c r="K6" s="117"/>
+      <c r="L6" s="122"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" customHeight="1">
       <c r="A7" s="123" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C7" s="117"/>
       <c r="D7" s="117"/>
@@ -10424,24 +10481,26 @@
       <c r="H7" s="117"/>
       <c r="I7" s="117"/>
       <c r="J7" s="117"/>
-      <c r="K7" s="122"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="117"/>
+      <c r="L7" s="122"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="97"/>
-      <c r="K8" s="105"/>
-    </row>
-    <row r="9" spans="1:11" ht="21.75" customHeight="1">
+      <c r="L8" s="105"/>
+    </row>
+    <row r="9" spans="1:12" ht="21.75" customHeight="1">
       <c r="A9" s="97"/>
       <c r="F9" s="98"/>
       <c r="G9" s="273" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H9" s="274"/>
       <c r="I9" s="274"/>
       <c r="J9" s="274"/>
       <c r="K9" s="274"/>
-    </row>
-    <row r="10" spans="1:11" ht="21.75" customHeight="1">
+      <c r="L9" s="274"/>
+    </row>
+    <row r="10" spans="1:12" ht="21.75" customHeight="1">
       <c r="A10" s="97"/>
       <c r="B10" s="99"/>
       <c r="C10" s="99"/>
@@ -10449,99 +10508,111 @@
       <c r="E10" s="99"/>
       <c r="F10" s="100"/>
       <c r="G10" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="102" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="102" t="s">
+      <c r="K10" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="102" t="s">
-        <v>149</v>
-      </c>
-      <c r="J10" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="K10" s="102" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1">
       <c r="A11" s="97"/>
       <c r="B11" s="275" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C11" s="278" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D11" s="279"/>
       <c r="E11" s="279"/>
       <c r="F11" s="280"/>
       <c r="G11" s="102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H11" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I11" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J11" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K11" s="102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="22.5" customHeight="1">
+        <v>214</v>
+      </c>
+      <c r="L11" s="102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1">
       <c r="A12" s="97"/>
       <c r="B12" s="276"/>
       <c r="C12" s="278" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D12" s="279"/>
       <c r="E12" s="279"/>
       <c r="F12" s="280"/>
       <c r="G12" s="102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I12" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J12" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K12" s="102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="22.5" customHeight="1">
+        <v>214</v>
+      </c>
+      <c r="L12" s="102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1">
       <c r="A13" s="97"/>
       <c r="B13" s="276"/>
       <c r="C13" s="278" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D13" s="279"/>
       <c r="E13" s="279"/>
       <c r="F13" s="280"/>
       <c r="G13" s="102" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I13" s="102" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J13" s="102" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K13" s="102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="22.5" customHeight="1">
+        <v>214</v>
+      </c>
+      <c r="L13" s="102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1">
       <c r="A14" s="97"/>
       <c r="B14" s="276"/>
       <c r="C14" s="278"/>
@@ -10553,158 +10624,177 @@
       <c r="I14" s="102"/>
       <c r="J14" s="102"/>
       <c r="K14" s="102"/>
-    </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1">
+      <c r="L14" s="102"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1">
       <c r="A15" s="97"/>
       <c r="B15" s="276"/>
       <c r="C15" s="278" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D15" s="279"/>
       <c r="E15" s="279"/>
       <c r="F15" s="280"/>
       <c r="G15" s="102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H15" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="I15" s="102" t="s">
-        <v>161</v>
-      </c>
       <c r="J15" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K15" s="102" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="22.5" customHeight="1">
+        <v>214</v>
+      </c>
+      <c r="L15" s="102" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1">
       <c r="A16" s="97"/>
       <c r="B16" s="276"/>
       <c r="C16" s="163" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
       <c r="F16" s="164"/>
       <c r="G16" s="102" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H16" s="102" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J16" s="102" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K16" s="102" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1">
+        <v>214</v>
+      </c>
+      <c r="L16" s="102" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1">
       <c r="A17" s="97"/>
       <c r="B17" s="276"/>
       <c r="C17" s="278" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D17" s="279"/>
       <c r="E17" s="279"/>
       <c r="F17" s="280"/>
       <c r="G17" s="102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H17" s="102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J17" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K17" s="102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1">
+        <v>214</v>
+      </c>
+      <c r="L17" s="102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1">
       <c r="A18" s="97"/>
       <c r="B18" s="276"/>
       <c r="C18" s="163" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
       <c r="F18" s="164"/>
       <c r="G18" s="102" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H18" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="102" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="L18" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="I18" s="102" t="s">
-        <v>185</v>
-      </c>
-      <c r="J18" s="102" t="s">
-        <v>187</v>
-      </c>
-      <c r="K18" s="102" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="22.5" customHeight="1">
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1">
       <c r="A19" s="97"/>
       <c r="B19" s="276"/>
       <c r="C19" s="278" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D19" s="279"/>
       <c r="E19" s="279"/>
       <c r="F19" s="280"/>
       <c r="G19" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H19" s="102" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I19" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J19" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K19" s="102" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1">
+        <v>216</v>
+      </c>
+      <c r="L19" s="102" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1">
       <c r="A20" s="97"/>
       <c r="B20" s="276"/>
       <c r="C20" s="163" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
       <c r="F20" s="164"/>
       <c r="G20" s="102" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H20" s="102" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I20" s="102" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J20" s="102" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K20" s="102" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1">
+        <v>216</v>
+      </c>
+      <c r="L20" s="102" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1">
       <c r="A21" s="97"/>
       <c r="B21" s="276"/>
       <c r="C21" s="278"/>
@@ -10716,108 +10806,121 @@
       <c r="I21" s="102"/>
       <c r="J21" s="102"/>
       <c r="K21" s="102"/>
-    </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1">
+      <c r="L21" s="102"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1">
       <c r="A22" s="97"/>
       <c r="B22" s="276"/>
       <c r="C22" s="278" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D22" s="279"/>
       <c r="E22" s="279"/>
       <c r="F22" s="280"/>
       <c r="G22" s="102" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H22" s="102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I22" s="102" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J22" s="102" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K22" s="102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1">
+        <v>214</v>
+      </c>
+      <c r="L22" s="102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1">
       <c r="A23" s="97"/>
       <c r="B23" s="276"/>
       <c r="C23" s="278" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D23" s="279"/>
       <c r="E23" s="279"/>
       <c r="F23" s="280"/>
       <c r="G23" s="102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H23" s="102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I23" s="102" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J23" s="102" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K23" s="102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="22.5" customHeight="1">
+        <v>215</v>
+      </c>
+      <c r="L23" s="102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="22.5" customHeight="1">
       <c r="A24" s="97"/>
       <c r="B24" s="276"/>
       <c r="C24" s="278" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D24" s="279"/>
       <c r="E24" s="279"/>
       <c r="F24" s="280"/>
       <c r="G24" s="102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H24" s="102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I24" s="102" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J24" s="102" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K24" s="102" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="22.5" customHeight="1">
+        <v>215</v>
+      </c>
+      <c r="L24" s="102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" customHeight="1">
       <c r="A25" s="97"/>
       <c r="B25" s="276"/>
       <c r="C25" s="278" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D25" s="279"/>
       <c r="E25" s="279"/>
       <c r="F25" s="280"/>
       <c r="G25" s="102" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H25" s="102" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I25" s="102" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J25" s="102" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K25" s="102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="22.5" customHeight="1">
+        <v>214</v>
+      </c>
+      <c r="L25" s="102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" customHeight="1">
       <c r="A26" s="97"/>
       <c r="B26" s="276"/>
       <c r="C26" s="278"/>
@@ -10829,8 +10932,9 @@
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
       <c r="K26" s="102"/>
-    </row>
-    <row r="27" spans="1:11" ht="22.5" customHeight="1">
+      <c r="L26" s="102"/>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" customHeight="1">
       <c r="A27" s="97"/>
       <c r="B27" s="276"/>
       <c r="C27" s="278"/>
@@ -10842,8 +10946,9 @@
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
       <c r="K27" s="102"/>
-    </row>
-    <row r="28" spans="1:11" ht="22.5" customHeight="1">
+      <c r="L27" s="102"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1">
       <c r="A28" s="97"/>
       <c r="B28" s="276"/>
       <c r="C28" s="278"/>
@@ -10855,8 +10960,9 @@
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
       <c r="K28" s="102"/>
-    </row>
-    <row r="29" spans="1:11" ht="22.5" customHeight="1">
+      <c r="L28" s="102"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1">
       <c r="A29" s="97"/>
       <c r="B29" s="276"/>
       <c r="C29" s="278"/>
@@ -10868,8 +10974,9 @@
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
       <c r="K29" s="102"/>
-    </row>
-    <row r="30" spans="1:11" ht="22.5" customHeight="1">
+      <c r="L29" s="102"/>
+    </row>
+    <row r="30" spans="1:12" ht="22.5" customHeight="1">
       <c r="A30" s="97"/>
       <c r="B30" s="276"/>
       <c r="C30" s="278"/>
@@ -10881,8 +10988,9 @@
       <c r="I30" s="102"/>
       <c r="J30" s="102"/>
       <c r="K30" s="102"/>
-    </row>
-    <row r="31" spans="1:11" ht="22.5" customHeight="1">
+      <c r="L30" s="102"/>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" customHeight="1">
       <c r="A31" s="97"/>
       <c r="B31" s="276"/>
       <c r="C31" s="278"/>
@@ -10894,8 +11002,9 @@
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
       <c r="K31" s="102"/>
-    </row>
-    <row r="32" spans="1:11" ht="22.5" customHeight="1">
+      <c r="L31" s="102"/>
+    </row>
+    <row r="32" spans="1:12" ht="22.5" customHeight="1">
       <c r="A32" s="97"/>
       <c r="B32" s="276"/>
       <c r="C32" s="278"/>
@@ -10907,8 +11016,9 @@
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
       <c r="K32" s="102"/>
-    </row>
-    <row r="33" spans="1:11" ht="23.25" customHeight="1">
+      <c r="L32" s="102"/>
+    </row>
+    <row r="33" spans="1:12" ht="23.25" customHeight="1">
       <c r="A33" s="97"/>
       <c r="B33" s="276"/>
       <c r="C33" s="278"/>
@@ -10920,8 +11030,9 @@
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
       <c r="K33" s="102"/>
-    </row>
-    <row r="34" spans="1:11" ht="23.25" customHeight="1">
+      <c r="L33" s="102"/>
+    </row>
+    <row r="34" spans="1:12" ht="23.25" customHeight="1">
       <c r="A34" s="97"/>
       <c r="B34" s="276"/>
       <c r="C34" s="278"/>
@@ -10933,8 +11044,9 @@
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
       <c r="K34" s="102"/>
-    </row>
-    <row r="35" spans="1:11" ht="23.25" customHeight="1">
+      <c r="L34" s="102"/>
+    </row>
+    <row r="35" spans="1:12" ht="23.25" customHeight="1">
       <c r="A35" s="97"/>
       <c r="B35" s="277"/>
       <c r="C35" s="278"/>
@@ -10946,8 +11058,9 @@
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
       <c r="K35" s="102"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="102"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="97"/>
       <c r="C36" s="278"/>
       <c r="D36" s="279"/>
@@ -10958,12 +11071,13 @@
       <c r="I36" s="102"/>
       <c r="J36" s="102"/>
       <c r="K36" s="102"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="102"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="103"/>
       <c r="B37" s="104"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="C38" s="104"/>
       <c r="D38" s="104"/>
       <c r="E38" s="104"/>
@@ -10973,6 +11087,7 @@
       <c r="I38" s="104"/>
       <c r="J38" s="104"/>
       <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -10988,7 +11103,7 @@
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G9:L9"/>
     <mergeCell ref="B11:B35"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
